--- a/Assets/Excel Data/2023_11_24/まとめ.xlsx
+++ b/Assets/Excel Data/2023_11_24/まとめ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DrivingTeam\UnityProject\Fujita_Project_2023\Assets\Excel Data\2023_11_24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\FujitaProject2023\Assets\Excel Data\2023_11_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CE55DC-25CC-40EB-AB85-BF846EE041CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7740378-2BDB-4A7A-A6AE-919CCC3DBBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2601,16 +2601,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>486727</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>258127</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2637,16 +2637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2684,347 +2684,6 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
-      <sheetName val="1"/>
-      <sheetName val="10"/>
-      <sheetName val="30"/>
-      <sheetName val="20"/>
-      <sheetName val="20(1)"/>
-      <sheetName val="10(1)"/>
-      <sheetName val="1(1)"/>
-      <sheetName val="30(1)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>0.83399999999999996</v>
-          </cell>
-          <cell r="C2">
-            <v>0.70030000000000003</v>
-          </cell>
-          <cell r="D2">
-            <v>1.085</v>
-          </cell>
-          <cell r="E2">
-            <v>0.82130000000000003</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.99990000000000001</v>
-          </cell>
-          <cell r="C3">
-            <v>0.96599999999999997</v>
-          </cell>
-          <cell r="D3">
-            <v>0.93540000000000001</v>
-          </cell>
-          <cell r="E3">
-            <v>0.79690000000000005</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.84919999999999995</v>
-          </cell>
-          <cell r="C4">
-            <v>1.0914999999999999</v>
-          </cell>
-          <cell r="D4">
-            <v>0.64910000000000001</v>
-          </cell>
-          <cell r="E4">
-            <v>0.61480000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.8407</v>
-          </cell>
-          <cell r="C5">
-            <v>0.84050000000000002</v>
-          </cell>
-          <cell r="D5">
-            <v>1.1751</v>
-          </cell>
-          <cell r="E5">
-            <v>0.83630000000000004</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.75360000000000005</v>
-          </cell>
-          <cell r="C6">
-            <v>1.0067999999999999</v>
-          </cell>
-          <cell r="D6">
-            <v>1.0335000000000001</v>
-          </cell>
-          <cell r="E6">
-            <v>0.59219999999999995</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1.0145</v>
-          </cell>
-          <cell r="C7">
-            <v>1.0445</v>
-          </cell>
-          <cell r="D7">
-            <v>1.0130999999999999</v>
-          </cell>
-          <cell r="E7">
-            <v>0.65880000000000005</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.8306</v>
-          </cell>
-          <cell r="C8">
-            <v>0.73009999999999997</v>
-          </cell>
-          <cell r="D8">
-            <v>0.91879999999999995</v>
-          </cell>
-          <cell r="E8">
-            <v>0.90239999999999998</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.68540000000000001</v>
-          </cell>
-          <cell r="C9">
-            <v>0.95430000000000004</v>
-          </cell>
-          <cell r="D9">
-            <v>0.78420000000000001</v>
-          </cell>
-          <cell r="E9">
-            <v>0.95309999999999995</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.95799999999999996</v>
-          </cell>
-          <cell r="C10">
-            <v>0.81359999999999999</v>
-          </cell>
-          <cell r="D10">
-            <v>1.2261</v>
-          </cell>
-          <cell r="E10">
-            <v>0.66959999999999997</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.89839999999999998</v>
-          </cell>
-          <cell r="C11">
-            <v>0.76470000000000005</v>
-          </cell>
-          <cell r="D11">
-            <v>0.74729999999999996</v>
-          </cell>
-          <cell r="E11">
-            <v>0.65500000000000003</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0.86287777777777785</v>
-          </cell>
-          <cell r="C12">
-            <v>0.90528888888888892</v>
-          </cell>
-          <cell r="D12">
-            <v>0.98003333333333331</v>
-          </cell>
-          <cell r="E12">
-            <v>0.76060000000000005</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>9.8966146231930494E-2</v>
-          </cell>
-          <cell r="C13">
-            <v>0.13173894678491954</v>
-          </cell>
-          <cell r="D13">
-            <v>0.1777434792052871</v>
-          </cell>
-          <cell r="E13">
-            <v>0.12091022454697471</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>8.7189186467420363</v>
-          </cell>
-          <cell r="C14">
-            <v>6.8718394292834848</v>
-          </cell>
-          <cell r="D14">
-            <v>5.5137512651107237</v>
-          </cell>
-          <cell r="E14">
-            <v>6.2906177111969557</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>51.544956471095801</v>
-          </cell>
-          <cell r="C15">
-            <v>51.061360357737037</v>
-          </cell>
-          <cell r="D15">
-            <v>51.902301749146751</v>
-          </cell>
-          <cell r="E15">
-            <v>55.96504116198922</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>15.794826774517979</v>
-          </cell>
-          <cell r="C16">
-            <v>15.95293612021689</v>
-          </cell>
-          <cell r="D16">
-            <v>16.233562764891882</v>
-          </cell>
-          <cell r="E16">
-            <v>16.827886521383302</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>3.263407519875686</v>
-          </cell>
-          <cell r="C17">
-            <v>3.2007500044476345</v>
-          </cell>
-          <cell r="D17">
-            <v>3.1972218607116356</v>
-          </cell>
-          <cell r="E17">
-            <v>3.3257320276598068</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>-0.78335293356341373</v>
-          </cell>
-          <cell r="C18">
-            <v>-0.76989812811979907</v>
-          </cell>
-          <cell r="D18">
-            <v>-0.62796335324232055</v>
-          </cell>
-          <cell r="E18">
-            <v>-0.68154761201378677</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0.51335864725745595</v>
-          </cell>
-          <cell r="C19">
-            <v>0.51297050556994506</v>
-          </cell>
-          <cell r="D19">
-            <v>0.49111174075981384</v>
-          </cell>
-          <cell r="E19">
-            <v>0.41702235163788642</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>-1.5259369599564809</v>
-          </cell>
-          <cell r="C20">
-            <v>-1.5008623688108345</v>
-          </cell>
-          <cell r="D20">
-            <v>-1.2786567722261728</v>
-          </cell>
-          <cell r="E20">
-            <v>-1.6343191422161369</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>7.9148403796376211E-3</v>
-          </cell>
-          <cell r="C21">
-            <v>1.0940224625623957E-2</v>
-          </cell>
-          <cell r="D21">
-            <v>1.9542491467576806E-2</v>
-          </cell>
-          <cell r="E21">
-            <v>9.0894140817331399E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>4.3252071072572278E-2</v>
-          </cell>
-          <cell r="C22">
-            <v>5.5074536395544459E-2</v>
-          </cell>
-          <cell r="D22">
-            <v>7.614911758616083E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>4.0431927963178772E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>0.18299332687115441</v>
-          </cell>
-          <cell r="C23">
-            <v>0.19864397127288436</v>
-          </cell>
-          <cell r="D23">
-            <v>0.25663450985449654</v>
-          </cell>
-          <cell r="E23">
-            <v>0.22480783231536325</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
       <sheetName val="30まとめ"/>
       <sheetName val="20まとめ"/>
       <sheetName val="10まとめ"/>
@@ -3355,14 +3014,363 @@
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="1まとめ"/>
+      <sheetName val="10 まとめ"/>
+      <sheetName val="20まとめ"/>
+      <sheetName val="30まとめ"/>
+      <sheetName val="1"/>
+      <sheetName val="10"/>
+      <sheetName val="30"/>
+      <sheetName val="20"/>
+      <sheetName val="20(1)"/>
+      <sheetName val="10(1)"/>
+      <sheetName val="1(1)"/>
+      <sheetName val="30(1)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0.83399999999999996</v>
+          </cell>
+          <cell r="C2">
+            <v>0.70030000000000003</v>
+          </cell>
+          <cell r="D2">
+            <v>1.085</v>
+          </cell>
+          <cell r="E2">
+            <v>0.82130000000000003</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.99990000000000001</v>
+          </cell>
+          <cell r="C3">
+            <v>0.96599999999999997</v>
+          </cell>
+          <cell r="D3">
+            <v>0.93540000000000001</v>
+          </cell>
+          <cell r="E3">
+            <v>0.79690000000000005</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.84919999999999995</v>
+          </cell>
+          <cell r="C4">
+            <v>1.0914999999999999</v>
+          </cell>
+          <cell r="D4">
+            <v>0.64910000000000001</v>
+          </cell>
+          <cell r="E4">
+            <v>0.61480000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.8407</v>
+          </cell>
+          <cell r="C5">
+            <v>0.84050000000000002</v>
+          </cell>
+          <cell r="D5">
+            <v>1.1751</v>
+          </cell>
+          <cell r="E5">
+            <v>0.83630000000000004</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.75360000000000005</v>
+          </cell>
+          <cell r="C6">
+            <v>1.0067999999999999</v>
+          </cell>
+          <cell r="D6">
+            <v>1.0335000000000001</v>
+          </cell>
+          <cell r="E6">
+            <v>0.59219999999999995</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>1.0145</v>
+          </cell>
+          <cell r="C7">
+            <v>1.0445</v>
+          </cell>
+          <cell r="D7">
+            <v>1.0130999999999999</v>
+          </cell>
+          <cell r="E7">
+            <v>0.65880000000000005</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.8306</v>
+          </cell>
+          <cell r="C8">
+            <v>0.73009999999999997</v>
+          </cell>
+          <cell r="D8">
+            <v>0.91879999999999995</v>
+          </cell>
+          <cell r="E8">
+            <v>0.90239999999999998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.68540000000000001</v>
+          </cell>
+          <cell r="C9">
+            <v>0.95430000000000004</v>
+          </cell>
+          <cell r="D9">
+            <v>0.78420000000000001</v>
+          </cell>
+          <cell r="E9">
+            <v>0.95309999999999995</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>0.95799999999999996</v>
+          </cell>
+          <cell r="C10">
+            <v>0.81359999999999999</v>
+          </cell>
+          <cell r="D10">
+            <v>1.2261</v>
+          </cell>
+          <cell r="E10">
+            <v>0.66959999999999997</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0.89839999999999998</v>
+          </cell>
+          <cell r="C11">
+            <v>0.76470000000000005</v>
+          </cell>
+          <cell r="D11">
+            <v>0.74729999999999996</v>
+          </cell>
+          <cell r="E11">
+            <v>0.65500000000000003</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>0.86287777777777785</v>
+          </cell>
+          <cell r="C12">
+            <v>0.90528888888888892</v>
+          </cell>
+          <cell r="D12">
+            <v>0.98003333333333331</v>
+          </cell>
+          <cell r="E12">
+            <v>0.76060000000000005</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>9.8966146231930494E-2</v>
+          </cell>
+          <cell r="C13">
+            <v>0.13173894678491954</v>
+          </cell>
+          <cell r="D13">
+            <v>0.1777434792052871</v>
+          </cell>
+          <cell r="E13">
+            <v>0.12091022454697471</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>8.7189186467420363</v>
+          </cell>
+          <cell r="C14">
+            <v>6.8718394292834848</v>
+          </cell>
+          <cell r="D14">
+            <v>5.5137512651107237</v>
+          </cell>
+          <cell r="E14">
+            <v>6.2906177111969557</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>51.544956471095801</v>
+          </cell>
+          <cell r="C15">
+            <v>51.061360357737037</v>
+          </cell>
+          <cell r="D15">
+            <v>51.902301749146751</v>
+          </cell>
+          <cell r="E15">
+            <v>55.96504116198922</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>15.794826774517979</v>
+          </cell>
+          <cell r="C16">
+            <v>15.95293612021689</v>
+          </cell>
+          <cell r="D16">
+            <v>16.233562764891882</v>
+          </cell>
+          <cell r="E16">
+            <v>16.827886521383302</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>3.263407519875686</v>
+          </cell>
+          <cell r="C17">
+            <v>3.2007500044476345</v>
+          </cell>
+          <cell r="D17">
+            <v>3.1972218607116356</v>
+          </cell>
+          <cell r="E17">
+            <v>3.3257320276598068</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>-0.78335293356341373</v>
+          </cell>
+          <cell r="C18">
+            <v>-0.76989812811979907</v>
+          </cell>
+          <cell r="D18">
+            <v>-0.62796335324232055</v>
+          </cell>
+          <cell r="E18">
+            <v>-0.68154761201378677</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>0.51335864725745595</v>
+          </cell>
+          <cell r="C19">
+            <v>0.51297050556994506</v>
+          </cell>
+          <cell r="D19">
+            <v>0.49111174075981384</v>
+          </cell>
+          <cell r="E19">
+            <v>0.41702235163788642</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>-1.5259369599564809</v>
+          </cell>
+          <cell r="C20">
+            <v>-1.5008623688108345</v>
+          </cell>
+          <cell r="D20">
+            <v>-1.2786567722261728</v>
+          </cell>
+          <cell r="E20">
+            <v>-1.6343191422161369</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>7.9148403796376211E-3</v>
+          </cell>
+          <cell r="C21">
+            <v>1.0940224625623957E-2</v>
+          </cell>
+          <cell r="D21">
+            <v>1.9542491467576806E-2</v>
+          </cell>
+          <cell r="E21">
+            <v>9.0894140817331399E-3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>4.3252071072572278E-2</v>
+          </cell>
+          <cell r="C22">
+            <v>5.5074536395544459E-2</v>
+          </cell>
+          <cell r="D22">
+            <v>7.614911758616083E-2</v>
+          </cell>
+          <cell r="E22">
+            <v>4.0431927963178772E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>0.18299332687115441</v>
+          </cell>
+          <cell r="C23">
+            <v>0.19864397127288436</v>
+          </cell>
+          <cell r="D23">
+            <v>0.25663450985449654</v>
+          </cell>
+          <cell r="E23">
+            <v>0.22480783231536325</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3633,34 +3641,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1">
-        <f>[2]Sheet1!A1</f>
+        <f>[1]Sheet1!A1</f>
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>[2]Sheet1!B1</f>
+        <f>[1]Sheet1!B1</f>
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1">
-        <f>[2]Sheet1!C1</f>
+        <f>[1]Sheet1!C1</f>
         <v>10</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1">
-        <f>[2]Sheet1!D1</f>
+        <f>[1]Sheet1!D1</f>
         <v>20</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1">
-        <f>[2]Sheet1!E1</f>
+        <f>[1]Sheet1!E1</f>
         <v>30</v>
       </c>
       <c r="I1" s="1"/>
@@ -3693,777 +3701,777 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="str">
-        <f>[2]Sheet1!A2</f>
+        <f>[1]Sheet1!A2</f>
         <v>Dist</v>
       </c>
       <c r="B3">
+        <f>[2]Sheet1!B2</f>
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="C3">
         <f>[1]Sheet1!B2</f>
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="C3">
-        <f>[2]Sheet1!B2</f>
         <v>0.64419999999999999</v>
       </c>
       <c r="D3">
+        <f>[2]Sheet1!C2</f>
+        <v>0.70030000000000003</v>
+      </c>
+      <c r="E3">
         <f>[1]Sheet1!C2</f>
-        <v>0.70030000000000003</v>
-      </c>
-      <c r="E3">
-        <f>[2]Sheet1!C2</f>
         <v>1.1355999999999999</v>
       </c>
       <c r="F3">
+        <f>[2]Sheet1!D2</f>
+        <v>1.085</v>
+      </c>
+      <c r="G3">
         <f>[1]Sheet1!D2</f>
-        <v>1.085</v>
-      </c>
-      <c r="G3">
-        <f>[2]Sheet1!D2</f>
         <v>0.65659999999999996</v>
       </c>
       <c r="H3">
+        <f>[2]Sheet1!E2</f>
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="I3">
         <f>[1]Sheet1!E2</f>
-        <v>0.82130000000000003</v>
-      </c>
-      <c r="I3">
-        <f>[2]Sheet1!E2</f>
         <v>0.89419999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <f>[2]Sheet1!A3</f>
+        <f>[1]Sheet1!A3</f>
         <v>0</v>
       </c>
       <c r="B4">
+        <f>[2]Sheet1!B3</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="C4">
         <f>[1]Sheet1!B3</f>
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="C4">
-        <f>[2]Sheet1!B3</f>
         <v>0.45739999999999997</v>
       </c>
       <c r="D4">
+        <f>[2]Sheet1!C3</f>
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E4">
         <f>[1]Sheet1!C3</f>
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="E4">
-        <f>[2]Sheet1!C3</f>
         <v>0.74019999999999997</v>
       </c>
       <c r="F4">
+        <f>[2]Sheet1!D3</f>
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="G4">
         <f>[1]Sheet1!D3</f>
-        <v>0.93540000000000001</v>
-      </c>
-      <c r="G4">
-        <f>[2]Sheet1!D3</f>
         <v>0.77529999999999999</v>
       </c>
       <c r="H4">
+        <f>[2]Sheet1!E3</f>
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="I4">
         <f>[1]Sheet1!E3</f>
-        <v>0.79690000000000005</v>
-      </c>
-      <c r="I4">
-        <f>[2]Sheet1!E3</f>
         <v>1.3009999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <f>[2]Sheet1!A4</f>
+        <f>[1]Sheet1!A4</f>
         <v>0</v>
       </c>
       <c r="B5">
+        <f>[2]Sheet1!B4</f>
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="C5">
         <f>[1]Sheet1!B4</f>
-        <v>0.84919999999999995</v>
-      </c>
-      <c r="C5">
-        <f>[2]Sheet1!B4</f>
         <v>0.432</v>
       </c>
       <c r="D5">
+        <f>[2]Sheet1!C4</f>
+        <v>1.0914999999999999</v>
+      </c>
+      <c r="E5">
         <f>[1]Sheet1!C4</f>
-        <v>1.0914999999999999</v>
-      </c>
-      <c r="E5">
-        <f>[2]Sheet1!C4</f>
         <v>0.52449999999999997</v>
       </c>
       <c r="F5">
+        <f>[2]Sheet1!D4</f>
+        <v>0.64910000000000001</v>
+      </c>
+      <c r="G5">
         <f>[1]Sheet1!D4</f>
-        <v>0.64910000000000001</v>
-      </c>
-      <c r="G5">
-        <f>[2]Sheet1!D4</f>
         <v>0.43190000000000001</v>
       </c>
       <c r="H5">
+        <f>[2]Sheet1!E4</f>
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="I5">
         <f>[1]Sheet1!E4</f>
-        <v>0.61480000000000001</v>
-      </c>
-      <c r="I5">
-        <f>[2]Sheet1!E4</f>
         <v>0.96140000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <f>[2]Sheet1!A5</f>
+        <f>[1]Sheet1!A5</f>
         <v>0</v>
       </c>
       <c r="B6">
+        <f>[2]Sheet1!B5</f>
+        <v>0.8407</v>
+      </c>
+      <c r="C6">
         <f>[1]Sheet1!B5</f>
-        <v>0.8407</v>
-      </c>
-      <c r="C6">
-        <f>[2]Sheet1!B5</f>
         <v>0.2802</v>
       </c>
       <c r="D6">
+        <f>[2]Sheet1!C5</f>
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="E6">
         <f>[1]Sheet1!C5</f>
-        <v>0.84050000000000002</v>
-      </c>
-      <c r="E6">
-        <f>[2]Sheet1!C5</f>
         <v>0.77759999999999996</v>
       </c>
       <c r="F6">
+        <f>[2]Sheet1!D5</f>
+        <v>1.1751</v>
+      </c>
+      <c r="G6">
         <f>[1]Sheet1!D5</f>
-        <v>1.1751</v>
-      </c>
-      <c r="G6">
-        <f>[2]Sheet1!D5</f>
         <v>0.75319999999999998</v>
       </c>
       <c r="H6">
+        <f>[2]Sheet1!E5</f>
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="I6">
         <f>[1]Sheet1!E5</f>
-        <v>0.83630000000000004</v>
-      </c>
-      <c r="I6">
-        <f>[2]Sheet1!E5</f>
         <v>0.61219999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <f>[2]Sheet1!A6</f>
+        <f>[1]Sheet1!A6</f>
         <v>0</v>
       </c>
       <c r="B7">
+        <f>[2]Sheet1!B6</f>
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="C7">
         <f>[1]Sheet1!B6</f>
-        <v>0.75360000000000005</v>
-      </c>
-      <c r="C7">
-        <f>[2]Sheet1!B6</f>
         <v>0.57250000000000001</v>
       </c>
       <c r="D7">
+        <f>[2]Sheet1!C6</f>
+        <v>1.0067999999999999</v>
+      </c>
+      <c r="E7">
         <f>[1]Sheet1!C6</f>
-        <v>1.0067999999999999</v>
-      </c>
-      <c r="E7">
-        <f>[2]Sheet1!C6</f>
         <v>1.0081</v>
       </c>
       <c r="F7">
+        <f>[2]Sheet1!D6</f>
+        <v>1.0335000000000001</v>
+      </c>
+      <c r="G7">
         <f>[1]Sheet1!D6</f>
-        <v>1.0335000000000001</v>
-      </c>
-      <c r="G7">
-        <f>[2]Sheet1!D6</f>
         <v>0.59370000000000001</v>
       </c>
       <c r="H7">
+        <f>[2]Sheet1!E6</f>
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="I7">
         <f>[1]Sheet1!E6</f>
-        <v>0.59219999999999995</v>
-      </c>
-      <c r="I7">
-        <f>[2]Sheet1!E6</f>
         <v>0.78949999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <f>[2]Sheet1!A7</f>
+        <f>[1]Sheet1!A7</f>
         <v>0</v>
       </c>
       <c r="B8">
+        <f>[2]Sheet1!B7</f>
+        <v>1.0145</v>
+      </c>
+      <c r="C8">
         <f>[1]Sheet1!B7</f>
-        <v>1.0145</v>
-      </c>
-      <c r="C8">
-        <f>[2]Sheet1!B7</f>
         <v>0.82</v>
       </c>
       <c r="D8">
+        <f>[2]Sheet1!C7</f>
+        <v>1.0445</v>
+      </c>
+      <c r="E8">
         <f>[1]Sheet1!C7</f>
-        <v>1.0445</v>
-      </c>
-      <c r="E8">
-        <f>[2]Sheet1!C7</f>
         <v>0.68610000000000004</v>
       </c>
       <c r="F8">
+        <f>[2]Sheet1!D7</f>
+        <v>1.0130999999999999</v>
+      </c>
+      <c r="G8">
         <f>[1]Sheet1!D7</f>
-        <v>1.0130999999999999</v>
-      </c>
-      <c r="G8">
-        <f>[2]Sheet1!D7</f>
         <v>0.75680000000000003</v>
       </c>
       <c r="H8">
+        <f>[2]Sheet1!E7</f>
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="I8">
         <f>[1]Sheet1!E7</f>
-        <v>0.65880000000000005</v>
-      </c>
-      <c r="I8">
-        <f>[2]Sheet1!E7</f>
         <v>0.92679999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <f>[2]Sheet1!A8</f>
+        <f>[1]Sheet1!A8</f>
         <v>0</v>
       </c>
       <c r="B9">
+        <f>[2]Sheet1!B8</f>
+        <v>0.8306</v>
+      </c>
+      <c r="C9">
         <f>[1]Sheet1!B8</f>
-        <v>0.8306</v>
-      </c>
-      <c r="C9">
-        <f>[2]Sheet1!B8</f>
         <v>0.9536</v>
       </c>
       <c r="D9">
+        <f>[2]Sheet1!C8</f>
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="E9">
         <f>[1]Sheet1!C8</f>
-        <v>0.73009999999999997</v>
-      </c>
-      <c r="E9">
-        <f>[2]Sheet1!C8</f>
         <v>0.76490000000000002</v>
       </c>
       <c r="F9">
+        <f>[2]Sheet1!D8</f>
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="G9">
         <f>[1]Sheet1!D8</f>
-        <v>0.91879999999999995</v>
-      </c>
-      <c r="G9">
-        <f>[2]Sheet1!D8</f>
         <v>0.52190000000000003</v>
       </c>
       <c r="H9">
+        <f>[2]Sheet1!E8</f>
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="I9">
         <f>[1]Sheet1!E8</f>
-        <v>0.90239999999999998</v>
-      </c>
-      <c r="I9">
-        <f>[2]Sheet1!E8</f>
         <v>0.35149999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <f>[2]Sheet1!A9</f>
+        <f>[1]Sheet1!A9</f>
         <v>0</v>
       </c>
       <c r="B10">
+        <f>[2]Sheet1!B9</f>
+        <v>0.68540000000000001</v>
+      </c>
+      <c r="C10">
         <f>[1]Sheet1!B9</f>
-        <v>0.68540000000000001</v>
-      </c>
-      <c r="C10">
-        <f>[2]Sheet1!B9</f>
         <v>0.98480000000000001</v>
       </c>
       <c r="D10">
+        <f>[2]Sheet1!C9</f>
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="E10">
         <f>[1]Sheet1!C9</f>
-        <v>0.95430000000000004</v>
-      </c>
-      <c r="E10">
-        <f>[2]Sheet1!C9</f>
         <v>0.67459999999999998</v>
       </c>
       <c r="F10">
+        <f>[2]Sheet1!D9</f>
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="G10">
         <f>[1]Sheet1!D9</f>
-        <v>0.78420000000000001</v>
-      </c>
-      <c r="G10">
-        <f>[2]Sheet1!D9</f>
         <v>0.37119999999999997</v>
       </c>
       <c r="H10">
+        <f>[2]Sheet1!E9</f>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="I10">
         <f>[1]Sheet1!E9</f>
-        <v>0.95309999999999995</v>
-      </c>
-      <c r="I10">
-        <f>[2]Sheet1!E9</f>
         <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <f>[2]Sheet1!A10</f>
+        <f>[1]Sheet1!A10</f>
         <v>0</v>
       </c>
       <c r="B11">
+        <f>[2]Sheet1!B10</f>
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C11">
         <f>[1]Sheet1!B10</f>
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="C11">
-        <f>[2]Sheet1!B10</f>
         <v>1.0807</v>
       </c>
       <c r="D11">
+        <f>[2]Sheet1!C10</f>
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="E11">
         <f>[1]Sheet1!C10</f>
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="E11">
-        <f>[2]Sheet1!C10</f>
         <v>0.99150000000000005</v>
       </c>
       <c r="F11">
+        <f>[2]Sheet1!D10</f>
+        <v>1.2261</v>
+      </c>
+      <c r="G11">
         <f>[1]Sheet1!D10</f>
-        <v>1.2261</v>
-      </c>
-      <c r="G11">
-        <f>[2]Sheet1!D10</f>
         <v>0.4279</v>
       </c>
       <c r="H11">
+        <f>[2]Sheet1!E10</f>
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="I11">
         <f>[1]Sheet1!E10</f>
-        <v>0.66959999999999997</v>
-      </c>
-      <c r="I11">
-        <f>[2]Sheet1!E10</f>
         <v>0.84709999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <f>[2]Sheet1!A11</f>
+        <f>[1]Sheet1!A11</f>
         <v>0</v>
       </c>
       <c r="B12">
+        <f>[2]Sheet1!B11</f>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="C12">
         <f>[1]Sheet1!B11</f>
-        <v>0.89839999999999998</v>
-      </c>
-      <c r="C12">
-        <f>[2]Sheet1!B11</f>
         <v>0.65629999999999999</v>
       </c>
       <c r="D12">
+        <f>[2]Sheet1!C11</f>
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="E12">
         <f>[1]Sheet1!C11</f>
-        <v>0.76470000000000005</v>
-      </c>
-      <c r="E12">
-        <f>[2]Sheet1!C11</f>
         <v>0.80879999999999996</v>
       </c>
       <c r="F12">
+        <f>[2]Sheet1!D11</f>
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="G12">
         <f>[1]Sheet1!D11</f>
-        <v>0.74729999999999996</v>
-      </c>
-      <c r="G12">
-        <f>[2]Sheet1!D11</f>
         <v>0.4325</v>
       </c>
       <c r="H12">
+        <f>[2]Sheet1!E11</f>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="I12">
         <f>[1]Sheet1!E11</f>
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="I12">
-        <f>[2]Sheet1!E11</f>
         <v>0.50470000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="str">
-        <f>[2]Sheet1!A12</f>
+        <f>[1]Sheet1!A12</f>
         <v>AVG</v>
       </c>
       <c r="B13">
+        <f>[2]Sheet1!B12</f>
+        <v>0.86287777777777785</v>
+      </c>
+      <c r="C13">
         <f>[1]Sheet1!B12</f>
-        <v>0.86287777777777785</v>
-      </c>
-      <c r="C13">
-        <f>[2]Sheet1!B12</f>
         <v>0.68816999999999995</v>
       </c>
       <c r="D13">
+        <f>[2]Sheet1!C12</f>
+        <v>0.90528888888888892</v>
+      </c>
+      <c r="E13">
         <f>[1]Sheet1!C12</f>
-        <v>0.90528888888888892</v>
-      </c>
-      <c r="E13">
-        <f>[2]Sheet1!C12</f>
         <v>0.81119000000000008</v>
       </c>
       <c r="F13">
+        <f>[2]Sheet1!D12</f>
+        <v>0.98003333333333331</v>
+      </c>
+      <c r="G13">
         <f>[1]Sheet1!D12</f>
-        <v>0.98003333333333331</v>
-      </c>
-      <c r="G13">
-        <f>[2]Sheet1!D12</f>
         <v>0.57210000000000005</v>
       </c>
       <c r="H13">
+        <f>[2]Sheet1!E12</f>
+        <v>0.76060000000000005</v>
+      </c>
+      <c r="I13">
         <f>[1]Sheet1!E12</f>
-        <v>0.76060000000000005</v>
-      </c>
-      <c r="I13">
-        <f>[2]Sheet1!E12</f>
         <v>0.77373999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="str">
-        <f>[2]Sheet1!A13</f>
+        <f>[1]Sheet1!A13</f>
         <v>SD</v>
       </c>
       <c r="B14">
+        <f>[2]Sheet1!B13</f>
+        <v>9.8966146231930494E-2</v>
+      </c>
+      <c r="C14">
         <f>[1]Sheet1!B13</f>
-        <v>9.8966146231930494E-2</v>
-      </c>
-      <c r="C14">
-        <f>[2]Sheet1!B13</f>
         <v>0.25130606459057053</v>
       </c>
       <c r="D14">
+        <f>[2]Sheet1!C13</f>
+        <v>0.13173894678491954</v>
+      </c>
+      <c r="E14">
         <f>[1]Sheet1!C13</f>
-        <v>0.13173894678491954</v>
-      </c>
-      <c r="E14">
-        <f>[2]Sheet1!C13</f>
         <v>0.17359116596186588</v>
       </c>
       <c r="F14">
+        <f>[2]Sheet1!D13</f>
+        <v>0.1777434792052871</v>
+      </c>
+      <c r="G14">
         <f>[1]Sheet1!D13</f>
-        <v>0.1777434792052871</v>
-      </c>
-      <c r="G14">
-        <f>[2]Sheet1!D13</f>
         <v>0.14786042066760141</v>
       </c>
       <c r="H14">
+        <f>[2]Sheet1!E13</f>
+        <v>0.12091022454697471</v>
+      </c>
+      <c r="I14">
         <f>[1]Sheet1!E13</f>
-        <v>0.12091022454697471</v>
-      </c>
-      <c r="I14">
-        <f>[2]Sheet1!E13</f>
         <v>0.26154536967799658</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="str">
-        <f>[2]Sheet1!A14</f>
+        <f>[1]Sheet1!A14</f>
         <v>CV</v>
       </c>
       <c r="B15">
+        <f>[2]Sheet1!B14</f>
+        <v>8.7189186467420363</v>
+      </c>
+      <c r="C15">
         <f>[1]Sheet1!B14</f>
-        <v>8.7189186467420363</v>
-      </c>
-      <c r="C15">
-        <f>[2]Sheet1!B14</f>
         <v>2.7383740265925178</v>
       </c>
       <c r="D15">
+        <f>[2]Sheet1!C14</f>
+        <v>6.8718394292834848</v>
+      </c>
+      <c r="E15">
         <f>[1]Sheet1!C14</f>
-        <v>6.8718394292834848</v>
-      </c>
-      <c r="E15">
-        <f>[2]Sheet1!C14</f>
         <v>4.6729912522057742</v>
       </c>
       <c r="F15">
+        <f>[2]Sheet1!D14</f>
+        <v>5.5137512651107237</v>
+      </c>
+      <c r="G15">
         <f>[1]Sheet1!D14</f>
-        <v>5.5137512651107237</v>
-      </c>
-      <c r="G15">
-        <f>[2]Sheet1!D14</f>
         <v>3.8691895871587789</v>
       </c>
       <c r="H15">
+        <f>[2]Sheet1!E14</f>
+        <v>6.2906177111969557</v>
+      </c>
+      <c r="I15">
         <f>[1]Sheet1!E14</f>
-        <v>6.2906177111969557</v>
-      </c>
-      <c r="I15">
-        <f>[2]Sheet1!E14</f>
         <v>2.9583395070331218</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="str">
-        <f>[2]Sheet1!A15</f>
+        <f>[1]Sheet1!A15</f>
         <v>AVGV</v>
       </c>
       <c r="B16">
+        <f>[2]Sheet1!B15</f>
+        <v>51.544956471095801</v>
+      </c>
+      <c r="C16">
         <f>[1]Sheet1!B15</f>
-        <v>51.544956471095801</v>
-      </c>
-      <c r="C16">
-        <f>[2]Sheet1!B15</f>
         <v>52.794909115384556</v>
       </c>
       <c r="D16">
+        <f>[2]Sheet1!C15</f>
+        <v>51.061360357737037</v>
+      </c>
+      <c r="E16">
         <f>[1]Sheet1!C15</f>
-        <v>51.061360357737037</v>
-      </c>
-      <c r="E16">
-        <f>[2]Sheet1!C15</f>
         <v>52.156184763705099</v>
       </c>
       <c r="F16">
+        <f>[2]Sheet1!D15</f>
+        <v>51.902301749146751</v>
+      </c>
+      <c r="G16">
         <f>[1]Sheet1!D15</f>
-        <v>51.902301749146751</v>
-      </c>
-      <c r="G16">
-        <f>[2]Sheet1!D15</f>
         <v>53.322853628874142</v>
       </c>
       <c r="H16">
+        <f>[2]Sheet1!E15</f>
+        <v>55.96504116198922</v>
+      </c>
+      <c r="I16">
         <f>[1]Sheet1!E15</f>
-        <v>55.96504116198922</v>
-      </c>
-      <c r="I16">
-        <f>[2]Sheet1!E15</f>
         <v>53.240726624902145</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="str">
-        <f>[2]Sheet1!A16</f>
+        <f>[1]Sheet1!A16</f>
         <v>SD</v>
       </c>
       <c r="B17">
+        <f>[2]Sheet1!B16</f>
+        <v>15.794826774517979</v>
+      </c>
+      <c r="C17">
         <f>[1]Sheet1!B16</f>
-        <v>15.794826774517979</v>
-      </c>
-      <c r="C17">
-        <f>[2]Sheet1!B16</f>
         <v>15.581318756261902</v>
       </c>
       <c r="D17">
+        <f>[2]Sheet1!C16</f>
+        <v>15.95293612021689</v>
+      </c>
+      <c r="E17">
         <f>[1]Sheet1!C16</f>
-        <v>15.95293612021689</v>
-      </c>
-      <c r="E17">
-        <f>[2]Sheet1!C16</f>
         <v>16.150525996257493</v>
       </c>
       <c r="F17">
+        <f>[2]Sheet1!D16</f>
+        <v>16.233562764891882</v>
+      </c>
+      <c r="G17">
         <f>[1]Sheet1!D16</f>
-        <v>16.233562764891882</v>
-      </c>
-      <c r="G17">
-        <f>[2]Sheet1!D16</f>
         <v>17.336873831927306</v>
       </c>
       <c r="H17">
+        <f>[2]Sheet1!E16</f>
+        <v>16.827886521383302</v>
+      </c>
+      <c r="I17">
         <f>[1]Sheet1!E16</f>
-        <v>16.827886521383302</v>
-      </c>
-      <c r="I17">
-        <f>[2]Sheet1!E16</f>
         <v>17.075315517874007</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="str">
-        <f>[2]Sheet1!A17</f>
+        <f>[1]Sheet1!A17</f>
         <v>CV</v>
       </c>
       <c r="B18">
+        <f>[2]Sheet1!B17</f>
+        <v>3.263407519875686</v>
+      </c>
+      <c r="C18">
         <f>[1]Sheet1!B17</f>
-        <v>3.263407519875686</v>
-      </c>
-      <c r="C18">
-        <f>[2]Sheet1!B17</f>
         <v>3.388346643904391</v>
       </c>
       <c r="D18">
+        <f>[2]Sheet1!C17</f>
+        <v>3.2007500044476345</v>
+      </c>
+      <c r="E18">
         <f>[1]Sheet1!C17</f>
-        <v>3.2007500044476345</v>
-      </c>
-      <c r="E18">
-        <f>[2]Sheet1!C17</f>
         <v>3.2293799456309396</v>
       </c>
       <c r="F18">
+        <f>[2]Sheet1!D17</f>
+        <v>3.1972218607116356</v>
+      </c>
+      <c r="G18">
         <f>[1]Sheet1!D17</f>
-        <v>3.1972218607116356</v>
-      </c>
-      <c r="G18">
-        <f>[2]Sheet1!D17</f>
         <v>3.0756902395330141</v>
       </c>
       <c r="H18">
+        <f>[2]Sheet1!E17</f>
+        <v>3.3257320276598068</v>
+      </c>
+      <c r="I18">
         <f>[1]Sheet1!E17</f>
-        <v>3.3257320276598068</v>
-      </c>
-      <c r="I18">
-        <f>[2]Sheet1!E17</f>
         <v>3.1179937242841049</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="str">
-        <f>[2]Sheet1!A18</f>
+        <f>[1]Sheet1!A18</f>
         <v>AVGX</v>
       </c>
       <c r="B19">
+        <f>[2]Sheet1!B18</f>
+        <v>-0.78335293356341373</v>
+      </c>
+      <c r="C19">
         <f>[1]Sheet1!B18</f>
-        <v>-0.78335293356341373</v>
-      </c>
-      <c r="C19">
-        <f>[2]Sheet1!B18</f>
         <v>-1.0943819230769216</v>
       </c>
       <c r="D19">
+        <f>[2]Sheet1!C18</f>
+        <v>-0.76989812811979907</v>
+      </c>
+      <c r="E19">
         <f>[1]Sheet1!C18</f>
-        <v>-0.76989812811979907</v>
-      </c>
-      <c r="E19">
-        <f>[2]Sheet1!C18</f>
         <v>-1.0896227221172008</v>
       </c>
       <c r="F19">
+        <f>[2]Sheet1!D18</f>
+        <v>-0.62796335324232055</v>
+      </c>
+      <c r="G19">
         <f>[1]Sheet1!D18</f>
-        <v>-0.62796335324232055</v>
-      </c>
-      <c r="G19">
-        <f>[2]Sheet1!D18</f>
         <v>-1.0748652020400182</v>
       </c>
       <c r="H19">
+        <f>[2]Sheet1!E18</f>
+        <v>-0.68154761201378677</v>
+      </c>
+      <c r="I19">
         <f>[1]Sheet1!E18</f>
-        <v>-0.68154761201378677</v>
-      </c>
-      <c r="I19">
-        <f>[2]Sheet1!E18</f>
         <v>-1.1104055207517587</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="str">
-        <f>[2]Sheet1!A19</f>
+        <f>[1]Sheet1!A19</f>
         <v>SD</v>
       </c>
       <c r="B20">
+        <f>[2]Sheet1!B19</f>
+        <v>0.51335864725745595</v>
+      </c>
+      <c r="C20">
         <f>[1]Sheet1!B19</f>
-        <v>0.51335864725745595</v>
-      </c>
-      <c r="C20">
-        <f>[2]Sheet1!B19</f>
         <v>0.49390825952506112</v>
       </c>
       <c r="D20">
+        <f>[2]Sheet1!C19</f>
+        <v>0.51297050556994506</v>
+      </c>
+      <c r="E20">
         <f>[1]Sheet1!C19</f>
-        <v>0.51297050556994506</v>
-      </c>
-      <c r="E20">
-        <f>[2]Sheet1!C19</f>
         <v>0.53676477034024461</v>
       </c>
       <c r="F20">
+        <f>[2]Sheet1!D19</f>
+        <v>0.49111174075981384</v>
+      </c>
+      <c r="G20">
         <f>[1]Sheet1!D19</f>
-        <v>0.49111174075981384</v>
-      </c>
-      <c r="G20">
-        <f>[2]Sheet1!D19</f>
         <v>0.4659060999130738</v>
       </c>
       <c r="H20">
+        <f>[2]Sheet1!E19</f>
+        <v>0.41702235163788642</v>
+      </c>
+      <c r="I20">
         <f>[1]Sheet1!E19</f>
-        <v>0.41702235163788642</v>
-      </c>
-      <c r="I20">
-        <f>[2]Sheet1!E19</f>
         <v>0.5401742148612857</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="str">
-        <f>[2]Sheet1!A20</f>
+        <f>[1]Sheet1!A20</f>
         <v>CV</v>
       </c>
       <c r="B21">
+        <f>[2]Sheet1!B20</f>
+        <v>-1.5259369599564809</v>
+      </c>
+      <c r="C21">
         <f>[1]Sheet1!B20</f>
-        <v>-1.5259369599564809</v>
-      </c>
-      <c r="C21">
-        <f>[2]Sheet1!B20</f>
         <v>-2.2157595099326177</v>
       </c>
       <c r="D21">
+        <f>[2]Sheet1!C20</f>
+        <v>-1.5008623688108345</v>
+      </c>
+      <c r="E21">
         <f>[1]Sheet1!C20</f>
-        <v>-1.5008623688108345</v>
-      </c>
-      <c r="E21">
-        <f>[2]Sheet1!C20</f>
         <v>-2.0299818138707395</v>
       </c>
       <c r="F21">
+        <f>[2]Sheet1!D20</f>
+        <v>-1.2786567722261728</v>
+      </c>
+      <c r="G21">
         <f>[1]Sheet1!D20</f>
-        <v>-1.2786567722261728</v>
-      </c>
-      <c r="G21">
-        <f>[2]Sheet1!D20</f>
         <v>-2.3070425612383283</v>
       </c>
       <c r="H21">
+        <f>[2]Sheet1!E20</f>
+        <v>-1.6343191422161369</v>
+      </c>
+      <c r="I21">
         <f>[1]Sheet1!E20</f>
-        <v>-1.6343191422161369</v>
-      </c>
-      <c r="I21">
-        <f>[2]Sheet1!E20</f>
         <v>-2.0556433280268771</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22">
-        <f>[1]Sheet1!B21</f>
+        <f>[2]Sheet1!B21</f>
         <v>7.9148403796376211E-3</v>
       </c>
       <c r="D22">
-        <f>[1]Sheet1!C21</f>
+        <f>[2]Sheet1!C21</f>
         <v>1.0940224625623957E-2</v>
       </c>
       <c r="F22">
-        <f>[1]Sheet1!D21</f>
+        <f>[2]Sheet1!D21</f>
         <v>1.9542491467576806E-2</v>
       </c>
       <c r="H22">
-        <f>[1]Sheet1!E21</f>
+        <f>[2]Sheet1!E21</f>
         <v>9.0894140817331399E-3</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="B23">
-        <f>[1]Sheet1!B22</f>
+        <f>[2]Sheet1!B22</f>
         <v>4.3252071072572278E-2</v>
       </c>
       <c r="D23">
-        <f>[1]Sheet1!C22</f>
+        <f>[2]Sheet1!C22</f>
         <v>5.5074536395544459E-2</v>
       </c>
       <c r="F23">
-        <f>[1]Sheet1!D22</f>
+        <f>[2]Sheet1!D22</f>
         <v>7.614911758616083E-2</v>
       </c>
       <c r="H23">
-        <f>[1]Sheet1!E22</f>
+        <f>[2]Sheet1!E22</f>
         <v>4.0431927963178772E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="B24">
-        <f>[1]Sheet1!B23</f>
+        <f>[2]Sheet1!B23</f>
         <v>0.18299332687115441</v>
       </c>
       <c r="D24">
-        <f>[1]Sheet1!C23</f>
+        <f>[2]Sheet1!C23</f>
         <v>0.19864397127288436</v>
       </c>
       <c r="F24">
-        <f>[1]Sheet1!D23</f>
+        <f>[2]Sheet1!D23</f>
         <v>0.25663450985449654</v>
       </c>
       <c r="H24">
-        <f>[1]Sheet1!E23</f>
+        <f>[2]Sheet1!E23</f>
         <v>0.22480783231536325</v>
       </c>
     </row>
@@ -4475,8 +4483,8 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C17 E17 G17 I17">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B17 D17 F17 H17">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4487,8 +4495,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17 B17 F17 H17">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E17 C17 G17 I17">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Assets/Excel Data/2023_11_24/まとめ.xlsx
+++ b/Assets/Excel Data/2023_11_24/まとめ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\FujitaProject2023\Assets\Excel Data\2023_11_24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DrivingTeam\UnityProject\Fujita_Project_2023\Assets\Excel Data\2023_11_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7740378-2BDB-4A7A-A6AE-919CCC3DBBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6E5925-DF79-48DB-9E9B-5B16F153950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,32 +41,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>被験者A</t>
     <rPh sb="0" eb="3">
       <t>ヒケンシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>被験者B</t>
     <rPh sb="0" eb="3">
       <t>ヒケンシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>被験者C</t>
+    <rPh sb="0" eb="3">
+      <t>ヒケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AVGV</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ALLAVG</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,17 +121,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{FA0AE0A9-430F-447A-8B68-478FBB2D890A}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{7BDDAC5B-07FE-4BD4-A50A-C17C4D69402B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -169,30 +214,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$14:$C$14</c:f>
+                <c:f>Sheet1!$B$14:$D$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
                     <c:v>9.8966146231930494E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.25130606459057053</c:v>
                   </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19226539366199025</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$14:$C$14</c:f>
+                <c:f>Sheet1!$B$14:$D$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
                     <c:v>9.8966146231930494E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.25130606459057053</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19226539366199025</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -213,29 +264,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>被験者A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>被験者B</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>被験者C</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$C$13</c:f>
+              <c:f>Sheet1!$B$13:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.86287777777777785</c:v>
+                  <c:v>0.86643000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.68816999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5565199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -251,7 +308,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -276,30 +333,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$D$14:$E$14</c:f>
+                <c:f>Sheet1!$E$14:$G$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
                     <c:v>0.13173894678491954</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.17359116596186588</c:v>
                   </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.38052191001307673</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$D$14:$E$14</c:f>
+                <c:f>Sheet1!$E$14:$G$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
                     <c:v>0.13173894678491954</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.17359116596186588</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.38052191001307673</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -320,29 +383,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>被験者A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>被験者B</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>被験者C</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$E$13</c:f>
+              <c:f>Sheet1!$E$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.90528888888888892</c:v>
+                  <c:v>0.89122999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.81119000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,7 +427,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -383,30 +452,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$F$14:$G$14</c:f>
+                <c:f>Sheet1!$H$14:$J$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
                     <c:v>0.1777434792052871</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.14786042066760141</c:v>
                   </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.18198239585190926</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$F$14:$G$14</c:f>
+                <c:f>Sheet1!$H$14:$J$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
                     <c:v>0.1777434792052871</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.14786042066760141</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.18198239585190926</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -427,29 +502,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>被験者A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>被験者B</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>被験者C</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$13:$G$13</c:f>
+              <c:f>Sheet1!$H$13:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.98003333333333331</c:v>
+                  <c:v>0.95675999999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.57210000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4626399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -465,7 +546,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -490,30 +571,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$H$14:$I$14</c:f>
+                <c:f>Sheet1!$K$14:$M$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
                     <c:v>0.12091022454697471</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.26154536967799658</c:v>
                   </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19216917260580652</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$H$14:$I$14</c:f>
+                <c:f>Sheet1!$K$14:$M$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
                     <c:v>0.12091022454697471</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.26154536967799658</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19216917260580652</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -534,29 +621,35 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>被験者A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>被験者B</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>被験者C</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$13:$I$13</c:f>
+              <c:f>Sheet1!$K$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.76060000000000005</c:v>
+                  <c:v>0.75004000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.77373999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3708899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,37 +848,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -881,30 +943,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$17:$C$17</c:f>
+                <c:f>Sheet1!$B$29:$D$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>15.794826774517979</c:v>
+                    <c:v>12.837326379491946</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>15.581318756261902</c:v>
+                    <c:v>7.6771144227241734</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.738269145281327</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$17:$C$17</c:f>
+                <c:f>Sheet1!$B$29:$D$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>15.794826774517979</c:v>
+                    <c:v>12.837326379491946</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>15.581318756261902</c:v>
+                    <c:v>7.6771144227241734</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.738269145281327</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -925,36 +993,42 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>被験者A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>被験者B</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>被験者C</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$C$16</c:f>
+              <c:f>Sheet1!$B$28:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>51.544956471095801</c:v>
+                  <c:v>59.830920000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.794909115384556</c:v>
+                  <c:v>59.538380000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.583949999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0253-49C5-BF4C-C1A688B93965}"/>
+              <c16:uniqueId val="{00000000-4630-4A51-A2EB-6FC028FFDA99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -963,7 +1037,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -988,30 +1062,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$D$17:$E$17</c:f>
+                <c:f>Sheet1!$E$29:$G$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>15.95293612021689</c:v>
+                    <c:v>13.056556596882675</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.150525996257493</c:v>
+                    <c:v>7.3858805716108389</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.6349156251053802</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$D$17:$E$17</c:f>
+                <c:f>Sheet1!$E$29:$G$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>15.95293612021689</c:v>
+                    <c:v>13.056556596882675</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.150525996257493</c:v>
+                    <c:v>7.3858805716108389</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.6349156251053802</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1032,36 +1112,42 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>被験者A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>被験者B</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>被験者C</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$E$16</c:f>
+              <c:f>Sheet1!$E$28:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>51.061360357737037</c:v>
+                  <c:v>62.546179999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.156184763705099</c:v>
+                  <c:v>58.736970000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.916390000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0253-49C5-BF4C-C1A688B93965}"/>
+              <c16:uniqueId val="{00000001-4630-4A51-A2EB-6FC028FFDA99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1070,7 +1156,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1095,30 +1181,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$F$17:$G$17</c:f>
+                <c:f>Sheet1!$H$29:$J$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>16.233562764891882</c:v>
+                    <c:v>11.014170698264119</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>17.336873831927306</c:v>
+                    <c:v>6.3184376431916274</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>11.302880295464547</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$F$17:$G$17</c:f>
+                <c:f>Sheet1!$H$29:$J$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>16.233562764891882</c:v>
+                    <c:v>11.014170698264119</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>17.336873831927306</c:v>
+                    <c:v>6.3184376431916274</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>11.302880295464547</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1139,36 +1231,42 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>被験者A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>被験者B</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>被験者C</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$16:$G$16</c:f>
+              <c:f>Sheet1!$H$28:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>51.902301749146751</c:v>
+                  <c:v>62.918750000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.322853628874142</c:v>
+                  <c:v>60.558509999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.421719999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0253-49C5-BF4C-C1A688B93965}"/>
+              <c16:uniqueId val="{00000002-4630-4A51-A2EB-6FC028FFDA99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1177,7 +1275,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1202,30 +1300,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$H$17:$I$17</c:f>
+                <c:f>Sheet1!$K$29:$M$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>16.827886521383302</c:v>
+                    <c:v>10.974280178439903</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>17.075315517874007</c:v>
+                    <c:v>9.6146324856491994</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.1595925377901422</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$H$17:$I$17</c:f>
+                <c:f>Sheet1!$K$29:$M$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
+                  <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>16.827886521383302</c:v>
+                    <c:v>10.974280178439903</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>17.075315517874007</c:v>
+                    <c:v>9.6146324856491994</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.1595925377901422</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1246,36 +1350,42 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>被験者A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>被験者B</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>被験者C</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$16:$I$16</c:f>
+              <c:f>Sheet1!$K$28:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>55.96504116198922</c:v>
+                  <c:v>66.11151000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.240726624902145</c:v>
+                  <c:v>60.082929999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.173519999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0253-49C5-BF4C-C1A688B93965}"/>
+              <c16:uniqueId val="{00000003-4630-4A51-A2EB-6FC028FFDA99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2601,16 +2711,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>486727</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>10477</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>258127</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>467677</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2637,23 +2747,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA7F33E-C096-4B62-BCBA-1027A175A20C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA4F98D-5886-4B01-939D-E9FB957BC2D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,52 +2970,11 @@
           <cell r="A12" t="str">
             <v>AVG</v>
           </cell>
-          <cell r="B12">
-            <v>0.68816999999999995</v>
-          </cell>
-          <cell r="C12">
-            <v>0.81119000000000008</v>
-          </cell>
-          <cell r="D12">
-            <v>0.57210000000000005</v>
-          </cell>
-          <cell r="E12">
-            <v>0.77373999999999998</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
             <v>SD</v>
           </cell>
-          <cell r="B13">
-            <v>0.25130606459057053</v>
-          </cell>
-          <cell r="C13">
-            <v>0.17359116596186588</v>
-          </cell>
-          <cell r="D13">
-            <v>0.14786042066760141</v>
-          </cell>
-          <cell r="E13">
-            <v>0.26154536967799658</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>CV</v>
-          </cell>
-          <cell r="B14">
-            <v>2.7383740265925178</v>
-          </cell>
-          <cell r="C14">
-            <v>4.6729912522057742</v>
-          </cell>
-          <cell r="D14">
-            <v>3.8691895871587789</v>
-          </cell>
-          <cell r="E14">
-            <v>2.9583395070331218</v>
-          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -2941,87 +3010,227 @@
             <v>17.075315517874007</v>
           </cell>
         </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>CV</v>
-          </cell>
-          <cell r="B17">
-            <v>3.388346643904391</v>
-          </cell>
-          <cell r="C17">
-            <v>3.2293799456309396</v>
-          </cell>
-          <cell r="D17">
-            <v>3.0756902395330141</v>
-          </cell>
-          <cell r="E17">
-            <v>3.1179937242841049</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>AVGX</v>
-          </cell>
-          <cell r="B18">
-            <v>-1.0943819230769216</v>
-          </cell>
-          <cell r="C18">
-            <v>-1.0896227221172008</v>
-          </cell>
-          <cell r="D18">
-            <v>-1.0748652020400182</v>
-          </cell>
-          <cell r="E18">
-            <v>-1.1104055207517587</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>SD</v>
-          </cell>
-          <cell r="B19">
-            <v>0.49390825952506112</v>
-          </cell>
-          <cell r="C19">
-            <v>0.53676477034024461</v>
-          </cell>
-          <cell r="D19">
-            <v>0.4659060999130738</v>
-          </cell>
-          <cell r="E19">
-            <v>0.5401742148612857</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>CV</v>
-          </cell>
-          <cell r="B20">
-            <v>-2.2157595099326177</v>
-          </cell>
-          <cell r="C20">
-            <v>-2.0299818138707395</v>
-          </cell>
-          <cell r="D20">
-            <v>-2.3070425612383283</v>
-          </cell>
-          <cell r="E20">
-            <v>-2.0556433280268771</v>
-          </cell>
-        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="382">
+          <cell r="F382">
+            <v>49.949199999999998</v>
+          </cell>
+        </row>
+        <row r="586">
+          <cell r="F586">
+            <v>64.096599999999995</v>
+          </cell>
+        </row>
+        <row r="781">
+          <cell r="F781">
+            <v>70.650800000000004</v>
+          </cell>
+        </row>
+        <row r="953">
+          <cell r="F953">
+            <v>69.0852</v>
+          </cell>
+        </row>
+        <row r="1130">
+          <cell r="F1130">
+            <v>66.221199999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="386">
+          <cell r="F386">
+            <v>42.870100000000001</v>
+          </cell>
+        </row>
+        <row r="604">
+          <cell r="F604">
+            <v>70.766900000000007</v>
+          </cell>
+        </row>
+        <row r="782">
+          <cell r="F782">
+            <v>68.212999999999994</v>
+          </cell>
+        </row>
+        <row r="962">
+          <cell r="F962">
+            <v>64.547300000000007</v>
+          </cell>
+        </row>
+        <row r="1153">
+          <cell r="F1153">
+            <v>65.819299999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="397">
+          <cell r="F397">
+            <v>49.426099999999998</v>
+          </cell>
+        </row>
+        <row r="606">
+          <cell r="F606">
+            <v>61.619</v>
+          </cell>
+        </row>
+        <row r="814">
+          <cell r="F814">
+            <v>67.322299999999998</v>
+          </cell>
+        </row>
+        <row r="997">
+          <cell r="F997">
+            <v>60.209699999999998</v>
+          </cell>
+        </row>
+        <row r="1436">
+          <cell r="F1436">
+            <v>56.113500000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="436">
+          <cell r="F436">
+            <v>51.650300000000001</v>
+          </cell>
+        </row>
+        <row r="626">
+          <cell r="F626">
+            <v>63.137300000000003</v>
+          </cell>
+        </row>
+        <row r="826">
+          <cell r="F826">
+            <v>68.394599999999997</v>
+          </cell>
+        </row>
+        <row r="1005">
+          <cell r="F1005">
+            <v>61.5488</v>
+          </cell>
+        </row>
+        <row r="1412">
+          <cell r="F1412">
+            <v>50.632899999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="396">
+          <cell r="F396">
+            <v>45.101500000000001</v>
+          </cell>
+        </row>
+        <row r="604">
+          <cell r="F604">
+            <v>67.766599999999997</v>
+          </cell>
+        </row>
+        <row r="812">
+          <cell r="F812">
+            <v>61.385399999999997</v>
+          </cell>
+        </row>
+        <row r="1008">
+          <cell r="F1008">
+            <v>63.999099999999999</v>
+          </cell>
+        </row>
+        <row r="1403">
+          <cell r="F1403">
+            <v>50.360100000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="215">
+          <cell r="F215">
+            <v>62.324199999999998</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="F408">
+            <v>62.0779</v>
+          </cell>
+        </row>
+        <row r="765">
+          <cell r="F765">
+            <v>52.339700000000001</v>
+          </cell>
+        </row>
+        <row r="945">
+          <cell r="F945">
+            <v>65.529700000000005</v>
+          </cell>
+        </row>
+        <row r="1139">
+          <cell r="F1139">
+            <v>67.949700000000007</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="408">
+          <cell r="F408">
+            <v>50.597099999999998</v>
+          </cell>
+        </row>
+        <row r="603">
+          <cell r="F603">
+            <v>63.497399999999999</v>
+          </cell>
+        </row>
+        <row r="823">
+          <cell r="F823">
+            <v>55.7515</v>
+          </cell>
+        </row>
+        <row r="1252">
+          <cell r="F1252">
+            <v>49.964700000000001</v>
+          </cell>
+        </row>
+        <row r="1472">
+          <cell r="F1472">
+            <v>55.570099999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="397">
+          <cell r="F397">
+            <v>42.028199999999998</v>
+          </cell>
+        </row>
+        <row r="625">
+          <cell r="F625">
+            <v>59.507599999999996</v>
+          </cell>
+        </row>
+        <row r="842">
+          <cell r="F842">
+            <v>63.148499999999999</v>
+          </cell>
+        </row>
+        <row r="1026">
+          <cell r="F1026">
+            <v>66.563699999999997</v>
+          </cell>
+        </row>
+        <row r="1211">
+          <cell r="F1211">
+            <v>61.431100000000001</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3190,48 +3399,6 @@
             <v>0.65500000000000003</v>
           </cell>
         </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0.86287777777777785</v>
-          </cell>
-          <cell r="C12">
-            <v>0.90528888888888892</v>
-          </cell>
-          <cell r="D12">
-            <v>0.98003333333333331</v>
-          </cell>
-          <cell r="E12">
-            <v>0.76060000000000005</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>9.8966146231930494E-2</v>
-          </cell>
-          <cell r="C13">
-            <v>0.13173894678491954</v>
-          </cell>
-          <cell r="D13">
-            <v>0.1777434792052871</v>
-          </cell>
-          <cell r="E13">
-            <v>0.12091022454697471</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>8.7189186467420363</v>
-          </cell>
-          <cell r="C14">
-            <v>6.8718394292834848</v>
-          </cell>
-          <cell r="D14">
-            <v>5.5137512651107237</v>
-          </cell>
-          <cell r="E14">
-            <v>6.2906177111969557</v>
-          </cell>
-        </row>
         <row r="15">
           <cell r="B15">
             <v>51.544956471095801</v>
@@ -3260,117 +3427,505 @@
             <v>16.827886521383302</v>
           </cell>
         </row>
-        <row r="17">
-          <cell r="B17">
-            <v>3.263407519875686</v>
-          </cell>
-          <cell r="C17">
-            <v>3.2007500044476345</v>
-          </cell>
-          <cell r="D17">
-            <v>3.1972218607116356</v>
-          </cell>
-          <cell r="E17">
-            <v>3.3257320276598068</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>-0.78335293356341373</v>
-          </cell>
-          <cell r="C18">
-            <v>-0.76989812811979907</v>
-          </cell>
-          <cell r="D18">
-            <v>-0.62796335324232055</v>
-          </cell>
-          <cell r="E18">
-            <v>-0.68154761201378677</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0.51335864725745595</v>
-          </cell>
-          <cell r="C19">
-            <v>0.51297050556994506</v>
-          </cell>
-          <cell r="D19">
-            <v>0.49111174075981384</v>
-          </cell>
-          <cell r="E19">
-            <v>0.41702235163788642</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>-1.5259369599564809</v>
-          </cell>
-          <cell r="C20">
-            <v>-1.5008623688108345</v>
-          </cell>
-          <cell r="D20">
-            <v>-1.2786567722261728</v>
-          </cell>
-          <cell r="E20">
-            <v>-1.6343191422161369</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>7.9148403796376211E-3</v>
-          </cell>
-          <cell r="C21">
-            <v>1.0940224625623957E-2</v>
-          </cell>
-          <cell r="D21">
-            <v>1.9542491467576806E-2</v>
-          </cell>
-          <cell r="E21">
-            <v>9.0894140817331399E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>4.3252071072572278E-2</v>
-          </cell>
-          <cell r="C22">
-            <v>5.5074536395544459E-2</v>
-          </cell>
-          <cell r="D22">
-            <v>7.614911758616083E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>4.0431927963178772E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>0.18299332687115441</v>
-          </cell>
-          <cell r="C23">
-            <v>0.19864397127288436</v>
-          </cell>
-          <cell r="D23">
-            <v>0.25663450985449654</v>
-          </cell>
-          <cell r="E23">
-            <v>0.22480783231536325</v>
-          </cell>
-        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="185">
+          <cell r="G185">
+            <v>64.215800000000002</v>
+          </cell>
+        </row>
+        <row r="566">
+          <cell r="G566">
+            <v>40.0702</v>
+          </cell>
+        </row>
+        <row r="984">
+          <cell r="G984">
+            <v>47.117800000000003</v>
+          </cell>
+        </row>
+        <row r="1191">
+          <cell r="G1191">
+            <v>57.624699999999997</v>
+          </cell>
+        </row>
+        <row r="1563">
+          <cell r="G1563">
+            <v>38.174500000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="217">
+          <cell r="G217">
+            <v>64.452600000000004</v>
+          </cell>
+        </row>
+        <row r="595">
+          <cell r="G595">
+            <v>45.073099999999997</v>
+          </cell>
+        </row>
+        <row r="1059">
+          <cell r="G1059">
+            <v>49.835599999999999</v>
+          </cell>
+        </row>
+        <row r="1281">
+          <cell r="G1281">
+            <v>58.162300000000002</v>
+          </cell>
+        </row>
+        <row r="1654">
+          <cell r="G1654">
+            <v>42.823</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="165">
+          <cell r="F165">
+            <v>67.536799999999999</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="F329">
+            <v>67.450699999999998</v>
+          </cell>
+        </row>
+        <row r="661">
+          <cell r="F661">
+            <v>49.764400000000002</v>
+          </cell>
+        </row>
+        <row r="1114">
+          <cell r="F1114">
+            <v>44.714399999999998</v>
+          </cell>
+        </row>
+        <row r="1309">
+          <cell r="F1309">
+            <v>62.981099999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="167">
+          <cell r="F167">
+            <v>73.4559</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="F518">
+            <v>50.805900000000001</v>
+          </cell>
+        </row>
+        <row r="706">
+          <cell r="F706">
+            <v>73.628299999999996</v>
+          </cell>
+        </row>
+        <row r="874">
+          <cell r="F874">
+            <v>63.103299999999997</v>
+          </cell>
+        </row>
+        <row r="1275">
+          <cell r="F1275">
+            <v>50.4529</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="410">
+          <cell r="F410">
+            <v>41.4133</v>
+          </cell>
+        </row>
+        <row r="610">
+          <cell r="F610">
+            <v>65.077699999999993</v>
+          </cell>
+        </row>
+        <row r="777">
+          <cell r="F777">
+            <v>64.836500000000001</v>
+          </cell>
+        </row>
+        <row r="931">
+          <cell r="F931">
+            <v>74.374700000000004</v>
+          </cell>
+        </row>
+        <row r="1071">
+          <cell r="F1071">
+            <v>72.039000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="204">
+          <cell r="F204">
+            <v>59.9467</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="F364">
+            <v>69.998800000000003</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="F504">
+            <v>75.975399999999993</v>
+          </cell>
+        </row>
+        <row r="630">
+          <cell r="F630">
+            <v>80.5715</v>
+          </cell>
+        </row>
+        <row r="752">
+          <cell r="F752">
+            <v>78.622799999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="174">
+          <cell r="F174">
+            <v>64.614900000000006</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="F320">
+            <v>74.070800000000006</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="F466">
+            <v>69.419899999999998</v>
+          </cell>
+        </row>
+        <row r="613">
+          <cell r="F613">
+            <v>74.030799999999999</v>
+          </cell>
+        </row>
+        <row r="758">
+          <cell r="F758">
+            <v>68.969800000000006</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="135">
+          <cell r="F135">
+            <v>77.270399999999995</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="F253">
+            <v>83.088800000000006</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="F385">
+            <v>66.074600000000004</v>
+          </cell>
+        </row>
+        <row r="573">
+          <cell r="F573">
+            <v>69.933700000000002</v>
+          </cell>
+        </row>
+        <row r="724">
+          <cell r="F724">
+            <v>72.300200000000004</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="まとめ"/>
+      <sheetName val="1"/>
+      <sheetName val="10"/>
+      <sheetName val="20"/>
+      <sheetName val="30"/>
+      <sheetName val="SaveData"/>
+      <sheetName val="SaveData1"/>
+      <sheetName val="SaveData2"/>
+      <sheetName val="SaveData3"/>
+      <sheetName val="SaveData4"/>
+      <sheetName val="SaveData5"/>
+      <sheetName val="SaveData6"/>
+      <sheetName val="SaveData7"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="177">
+          <cell r="F177">
+            <v>73.730500000000006</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="F320">
+            <v>65.196100000000001</v>
+          </cell>
+        </row>
+        <row r="674">
+          <cell r="F674">
+            <v>47.239600000000003</v>
+          </cell>
+        </row>
+        <row r="880">
+          <cell r="F880">
+            <v>61.595999999999997</v>
+          </cell>
+        </row>
+        <row r="1043">
+          <cell r="F1043">
+            <v>64.503600000000006</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="138">
+          <cell r="F138">
+            <v>73.993600000000001</v>
+          </cell>
+          <cell r="T138">
+            <v>1.5684</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="F459">
+            <v>38.301900000000003</v>
+          </cell>
+          <cell r="T459">
+            <v>1.6072</v>
+          </cell>
+        </row>
+        <row r="681">
+          <cell r="F681">
+            <v>60.350900000000003</v>
+          </cell>
+          <cell r="T681">
+            <v>1.5379</v>
+          </cell>
+        </row>
+        <row r="848">
+          <cell r="F848">
+            <v>68.141499999999994</v>
+          </cell>
+          <cell r="T848">
+            <v>1.8004</v>
+          </cell>
+        </row>
+        <row r="1004">
+          <cell r="F1004">
+            <v>64.792199999999994</v>
+          </cell>
+          <cell r="T1004">
+            <v>1.8673</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="118">
+          <cell r="F118">
+            <v>83.172600000000003</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="F442">
+            <v>39.557099999999998</v>
+          </cell>
+        </row>
+        <row r="650">
+          <cell r="F650">
+            <v>66.520600000000002</v>
+          </cell>
+        </row>
+        <row r="801">
+          <cell r="F801">
+            <v>73.630799999999994</v>
+          </cell>
+        </row>
+        <row r="945">
+          <cell r="F945">
+            <v>66.292400000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="228">
+          <cell r="F228">
+            <v>57.048999999999999</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="F405">
+            <v>70.928399999999996</v>
+          </cell>
+        </row>
+        <row r="541">
+          <cell r="F541">
+            <v>78.807299999999998</v>
+          </cell>
+        </row>
+        <row r="674">
+          <cell r="F674">
+            <v>68.587999999999994</v>
+          </cell>
+        </row>
+        <row r="827">
+          <cell r="F827">
+            <v>68.774900000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="205">
+          <cell r="F205">
+            <v>63.688200000000002</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="F379">
+            <v>63.793500000000002</v>
+          </cell>
+        </row>
+        <row r="539">
+          <cell r="F539">
+            <v>66.974900000000005</v>
+          </cell>
+        </row>
+        <row r="864">
+          <cell r="F864">
+            <v>42.3399</v>
+          </cell>
+        </row>
+        <row r="1066">
+          <cell r="F1066">
+            <v>63.462899999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="184">
+          <cell r="F184">
+            <v>70.139799999999994</v>
+          </cell>
+          <cell r="T184">
+            <v>1.1689000000000001</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="F339">
+            <v>70.787000000000006</v>
+          </cell>
+          <cell r="T339">
+            <v>1.3606</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="F486">
+            <v>73.007400000000004</v>
+          </cell>
+          <cell r="T486">
+            <v>1.4153</v>
+          </cell>
+        </row>
+        <row r="640">
+          <cell r="F640">
+            <v>64.974999999999994</v>
+          </cell>
+          <cell r="T640">
+            <v>1.1195999999999999</v>
+          </cell>
+        </row>
+        <row r="819">
+          <cell r="F819">
+            <v>58.678400000000003</v>
+          </cell>
+          <cell r="T819">
+            <v>1.4988999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="157">
+          <cell r="F157">
+            <v>67.756</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="F302">
+            <v>72.771799999999999</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="F435">
+            <v>73.881100000000004</v>
+          </cell>
+        </row>
+        <row r="556">
+          <cell r="F556">
+            <v>82.572599999999994</v>
+          </cell>
+        </row>
+        <row r="673">
+          <cell r="F673">
+            <v>79.916600000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="122">
+          <cell r="F122">
+            <v>78.155299999999997</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="F256">
+            <v>71.495699999999999</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="F416">
+            <v>60.014699999999998</v>
+          </cell>
+        </row>
+        <row r="592">
+          <cell r="F592">
+            <v>64.113399999999999</v>
+          </cell>
+        </row>
+        <row r="745">
+          <cell r="F745">
+            <v>71.264600000000002</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3639,15 +4194,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="A1">
         <f>[1]Sheet1!A1</f>
         <v>0</v>
@@ -3657,23 +4216,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
         <f>[1]Sheet1!C1</f>
         <v>10</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1">
         <f>[1]Sheet1!D1</f>
         <v>20</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1">
         <f>[1]Sheet1!E1</f>
         <v>30</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:17">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3681,16 +4244,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -3698,8 +4261,20 @@
       <c r="I2" t="s">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:17">
       <c r="A3" t="str">
         <f>[1]Sheet1!A2</f>
         <v>Dist</v>
@@ -3713,31 +4288,44 @@
         <v>0.64419999999999999</v>
       </c>
       <c r="D3">
+        <f>[3]SaveData1!$T$138</f>
+        <v>1.5684</v>
+      </c>
+      <c r="E3">
         <f>[2]Sheet1!C2</f>
         <v>0.70030000000000003</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>[1]Sheet1!C2</f>
         <v>1.1355999999999999</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="2">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="H3">
         <f>[2]Sheet1!D2</f>
         <v>1.085</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <f>[1]Sheet1!D2</f>
         <v>0.65659999999999996</v>
       </c>
-      <c r="H3">
+      <c r="J3" s="2">
+        <v>1.5392999999999999</v>
+      </c>
+      <c r="K3">
         <f>[2]Sheet1!E2</f>
         <v>0.82130000000000003</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <f>[1]Sheet1!E2</f>
         <v>0.89419999999999999</v>
       </c>
+      <c r="M3" s="3">
+        <v>1.8001</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:17">
       <c r="A4">
         <f>[1]Sheet1!A3</f>
         <v>0</v>
@@ -3751,31 +4339,44 @@
         <v>0.45739999999999997</v>
       </c>
       <c r="D4">
+        <f>[3]SaveData1!$T$459</f>
+        <v>1.6072</v>
+      </c>
+      <c r="E4">
         <f>[2]Sheet1!C3</f>
         <v>0.96599999999999997</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f>[1]Sheet1!C3</f>
         <v>0.74019999999999997</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="2">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="H4">
         <f>[2]Sheet1!D3</f>
         <v>0.93540000000000001</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <f>[1]Sheet1!D3</f>
         <v>0.77529999999999999</v>
       </c>
-      <c r="H4">
+      <c r="J4" s="2">
+        <v>1.3973</v>
+      </c>
+      <c r="K4">
         <f>[2]Sheet1!E3</f>
         <v>0.79690000000000005</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <f>[1]Sheet1!E3</f>
         <v>1.3009999999999999</v>
       </c>
+      <c r="M4" s="3">
+        <v>1.2907</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:17">
       <c r="A5">
         <f>[1]Sheet1!A4</f>
         <v>0</v>
@@ -3789,31 +4390,44 @@
         <v>0.432</v>
       </c>
       <c r="D5">
+        <f>[3]SaveData1!$T$681</f>
+        <v>1.5379</v>
+      </c>
+      <c r="E5">
         <f>[2]Sheet1!C4</f>
         <v>1.0914999999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>[1]Sheet1!C4</f>
         <v>0.52449999999999997</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="2">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="H5">
         <f>[2]Sheet1!D4</f>
         <v>0.64910000000000001</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <f>[1]Sheet1!D4</f>
         <v>0.43190000000000001</v>
       </c>
-      <c r="H5">
+      <c r="J5" s="2">
+        <v>1.0243</v>
+      </c>
+      <c r="K5">
         <f>[2]Sheet1!E4</f>
         <v>0.61480000000000001</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <f>[1]Sheet1!E4</f>
         <v>0.96140000000000003</v>
       </c>
+      <c r="M5" s="3">
+        <v>1.4544999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:17">
       <c r="A6">
         <f>[1]Sheet1!A5</f>
         <v>0</v>
@@ -3827,31 +4441,44 @@
         <v>0.2802</v>
       </c>
       <c r="D6">
+        <f>[3]SaveData1!$T$848</f>
+        <v>1.8004</v>
+      </c>
+      <c r="E6">
         <f>[2]Sheet1!C5</f>
         <v>0.84050000000000002</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f>[1]Sheet1!C5</f>
         <v>0.77759999999999996</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="2">
+        <v>1.0537000000000001</v>
+      </c>
+      <c r="H6">
         <f>[2]Sheet1!D5</f>
         <v>1.1751</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <f>[1]Sheet1!D5</f>
         <v>0.75319999999999998</v>
       </c>
-      <c r="H6">
+      <c r="J6" s="2">
+        <v>1.3444</v>
+      </c>
+      <c r="K6">
         <f>[2]Sheet1!E5</f>
         <v>0.83630000000000004</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <f>[1]Sheet1!E5</f>
         <v>0.61219999999999997</v>
       </c>
+      <c r="M6" s="3">
+        <v>1.4401999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:17">
       <c r="A7">
         <f>[1]Sheet1!A6</f>
         <v>0</v>
@@ -3865,31 +4492,44 @@
         <v>0.57250000000000001</v>
       </c>
       <c r="D7">
+        <f>[3]SaveData1!$T$1004</f>
+        <v>1.8673</v>
+      </c>
+      <c r="E7">
         <f>[2]Sheet1!C6</f>
         <v>1.0067999999999999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f>[1]Sheet1!C6</f>
         <v>1.0081</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="2">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="H7">
         <f>[2]Sheet1!D6</f>
         <v>1.0335000000000001</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <f>[1]Sheet1!D6</f>
         <v>0.59370000000000001</v>
       </c>
-      <c r="H7">
+      <c r="J7" s="2">
+        <v>1.7152000000000001</v>
+      </c>
+      <c r="K7">
         <f>[2]Sheet1!E6</f>
         <v>0.59219999999999995</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <f>[1]Sheet1!E6</f>
         <v>0.78949999999999998</v>
       </c>
+      <c r="M7" s="3">
+        <v>1.1600999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:17">
       <c r="A8">
         <f>[1]Sheet1!A7</f>
         <v>0</v>
@@ -3902,32 +4542,45 @@
         <f>[1]Sheet1!B7</f>
         <v>0.82</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
+        <v>1.1511</v>
+      </c>
+      <c r="E8">
         <f>[2]Sheet1!C7</f>
         <v>1.0445</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f>[1]Sheet1!C7</f>
         <v>0.68610000000000004</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="2">
+        <v>1.3178000000000001</v>
+      </c>
+      <c r="H8">
         <f>[2]Sheet1!D7</f>
         <v>1.0130999999999999</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <f>[1]Sheet1!D7</f>
         <v>0.75680000000000003</v>
       </c>
-      <c r="H8">
+      <c r="J8" s="2">
+        <v>1.3989</v>
+      </c>
+      <c r="K8">
         <f>[2]Sheet1!E7</f>
         <v>0.65880000000000005</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <f>[1]Sheet1!E7</f>
         <v>0.92679999999999996</v>
       </c>
+      <c r="M8">
+        <f>[3]SaveData5!$T$184</f>
+        <v>1.1689000000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:17">
       <c r="A9">
         <f>[1]Sheet1!A8</f>
         <v>0</v>
@@ -3940,32 +4593,45 @@
         <f>[1]Sheet1!B8</f>
         <v>0.9536</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
+        <v>1.4525999999999999</v>
+      </c>
+      <c r="E9">
         <f>[2]Sheet1!C8</f>
         <v>0.73009999999999997</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f>[1]Sheet1!C8</f>
         <v>0.76490000000000002</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="2">
+        <v>1.3513999999999999</v>
+      </c>
+      <c r="H9">
         <f>[2]Sheet1!D8</f>
         <v>0.91879999999999995</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <f>[1]Sheet1!D8</f>
         <v>0.52190000000000003</v>
       </c>
-      <c r="H9">
+      <c r="J9" s="2">
+        <v>1.6527000000000001</v>
+      </c>
+      <c r="K9">
         <f>[2]Sheet1!E8</f>
         <v>0.90239999999999998</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <f>[1]Sheet1!E8</f>
         <v>0.35149999999999998</v>
       </c>
+      <c r="M9">
+        <f>[3]SaveData5!$T$339</f>
+        <v>1.3606</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:17">
       <c r="A10">
         <f>[1]Sheet1!A9</f>
         <v>0</v>
@@ -3978,32 +4644,45 @@
         <f>[1]Sheet1!B9</f>
         <v>0.98480000000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="E10">
         <f>[2]Sheet1!C9</f>
         <v>0.95430000000000004</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f>[1]Sheet1!C9</f>
         <v>0.67459999999999998</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="2">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="H10">
         <f>[2]Sheet1!D9</f>
         <v>0.78420000000000001</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <f>[1]Sheet1!D9</f>
         <v>0.37119999999999997</v>
       </c>
-      <c r="H10">
+      <c r="J10" s="2">
+        <v>1.494</v>
+      </c>
+      <c r="K10">
         <f>[2]Sheet1!E9</f>
         <v>0.95309999999999995</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <f>[1]Sheet1!E9</f>
         <v>0.54900000000000004</v>
       </c>
+      <c r="M10">
+        <f>[3]SaveData5!$T$486</f>
+        <v>1.4153</v>
+      </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:17">
       <c r="A11">
         <f>[1]Sheet1!A10</f>
         <v>0</v>
@@ -4016,32 +4695,45 @@
         <f>[1]Sheet1!B10</f>
         <v>1.0807</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
+        <v>1.6245000000000001</v>
+      </c>
+      <c r="E11">
         <f>[2]Sheet1!C10</f>
         <v>0.81359999999999999</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f>[1]Sheet1!C10</f>
         <v>0.99150000000000005</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="2">
+        <v>1.7232000000000001</v>
+      </c>
+      <c r="H11">
         <f>[2]Sheet1!D10</f>
         <v>1.2261</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <f>[1]Sheet1!D10</f>
         <v>0.4279</v>
       </c>
-      <c r="H11">
+      <c r="J11" s="2">
+        <v>1.5097</v>
+      </c>
+      <c r="K11">
         <f>[2]Sheet1!E10</f>
         <v>0.66959999999999997</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <f>[1]Sheet1!E10</f>
         <v>0.84709999999999996</v>
       </c>
+      <c r="M11">
+        <f>[3]SaveData5!$T$640</f>
+        <v>1.1195999999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:17">
       <c r="A12">
         <f>[1]Sheet1!A11</f>
         <v>0</v>
@@ -4054,146 +4746,188 @@
         <f>[1]Sheet1!B11</f>
         <v>0.65629999999999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
+        <v>1.5738000000000001</v>
+      </c>
+      <c r="E12">
         <f>[2]Sheet1!C11</f>
         <v>0.76470000000000005</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f>[1]Sheet1!C11</f>
         <v>0.80879999999999996</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="2">
+        <v>1.7151000000000001</v>
+      </c>
+      <c r="H12">
         <f>[2]Sheet1!D11</f>
         <v>0.74729999999999996</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <f>[1]Sheet1!D11</f>
         <v>0.4325</v>
       </c>
-      <c r="H12">
+      <c r="J12" s="2">
+        <v>1.5506</v>
+      </c>
+      <c r="K12">
         <f>[2]Sheet1!E11</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <f>[1]Sheet1!E11</f>
         <v>0.50470000000000004</v>
       </c>
+      <c r="M12">
+        <f>[3]SaveData5!$T$819</f>
+        <v>1.4988999999999999</v>
+      </c>
+      <c r="N12" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:17">
       <c r="A13" t="str">
         <f>[1]Sheet1!A12</f>
         <v>AVG</v>
       </c>
       <c r="B13">
-        <f>[2]Sheet1!B12</f>
-        <v>0.86287777777777785</v>
+        <f>AVERAGE(B3:B12)</f>
+        <v>0.86643000000000003</v>
       </c>
       <c r="C13">
-        <f>[1]Sheet1!B12</f>
+        <f t="shared" ref="C13:M13" si="0">AVERAGE(C3:C12)</f>
         <v>0.68816999999999995</v>
       </c>
       <c r="D13">
-        <f>[2]Sheet1!C12</f>
-        <v>0.90528888888888892</v>
+        <f t="shared" si="0"/>
+        <v>1.5565199999999999</v>
       </c>
       <c r="E13">
-        <f>[1]Sheet1!C12</f>
+        <f t="shared" si="0"/>
+        <v>0.89122999999999997</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
         <v>0.81119000000000008</v>
       </c>
-      <c r="F13">
-        <f>[2]Sheet1!D12</f>
-        <v>0.98003333333333331</v>
-      </c>
       <c r="G13">
-        <f>[1]Sheet1!D12</f>
+        <f t="shared" si="0"/>
+        <v>1.1432</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.95675999999999983</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
         <v>0.57210000000000005</v>
       </c>
-      <c r="H13">
-        <f>[2]Sheet1!E12</f>
-        <v>0.76060000000000005</v>
-      </c>
-      <c r="I13">
-        <f>[1]Sheet1!E12</f>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.4626399999999999</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.75004000000000004</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
         <v>0.77373999999999998</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1.3708899999999999</v>
+      </c>
+      <c r="N13">
+        <f>AVERAGE(B$3:D$12)</f>
+        <v>1.0370400000000002</v>
+      </c>
+      <c r="O13">
+        <f>AVERAGE(E$3:G$12)</f>
+        <v>0.94853999999999994</v>
+      </c>
+      <c r="P13">
+        <f>AVERAGE(H$3:J$12)</f>
+        <v>0.99716666666666653</v>
+      </c>
+      <c r="Q13">
+        <f>AVERAGE(K$3:M$12)</f>
+        <v>0.96489000000000003</v>
+      </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:17">
       <c r="A14" t="str">
         <f>[1]Sheet1!A13</f>
         <v>SD</v>
       </c>
       <c r="B14">
-        <f>[2]Sheet1!B13</f>
+        <f>_xlfn.STDEV.P(B3:B12)</f>
         <v>9.8966146231930494E-2</v>
       </c>
       <c r="C14">
-        <f>[1]Sheet1!B13</f>
+        <f t="shared" ref="C14:M14" si="1">_xlfn.STDEV.P(C3:C12)</f>
         <v>0.25130606459057053</v>
       </c>
       <c r="D14">
-        <f>[2]Sheet1!C13</f>
+        <f t="shared" si="1"/>
+        <v>0.19226539366199025</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
         <v>0.13173894678491954</v>
       </c>
-      <c r="E14">
-        <f>[1]Sheet1!C13</f>
+      <c r="F14">
+        <f t="shared" si="1"/>
         <v>0.17359116596186588</v>
       </c>
-      <c r="F14">
-        <f>[2]Sheet1!D13</f>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.38052191001307673</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
         <v>0.1777434792052871</v>
       </c>
-      <c r="G14">
-        <f>[1]Sheet1!D13</f>
+      <c r="I14">
+        <f t="shared" si="1"/>
         <v>0.14786042066760141</v>
       </c>
-      <c r="H14">
-        <f>[2]Sheet1!E13</f>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.18198239585190926</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
         <v>0.12091022454697471</v>
       </c>
-      <c r="I14">
-        <f>[1]Sheet1!E13</f>
+      <c r="L14">
+        <f t="shared" si="1"/>
         <v>0.26154536967799658</v>
       </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0.19216917260580652</v>
+      </c>
+      <c r="N14">
+        <f>_xlfn.STDEV.P(B$3:D$12)</f>
+        <v>0.42055223108035711</v>
+      </c>
+      <c r="O14">
+        <f>_xlfn.STDEV.P(E$3:G$12)</f>
+        <v>0.29001605771634992</v>
+      </c>
+      <c r="P14">
+        <f>_xlfn.STDEV.P(H$3:J$12)</f>
+        <v>0.40230702813757691</v>
+      </c>
+      <c r="Q14">
+        <f>_xlfn.STDEV.P(K$3:M$12)</f>
+        <v>0.34999480886626511</v>
+      </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="str">
-        <f>[1]Sheet1!A14</f>
-        <v>CV</v>
-      </c>
-      <c r="B15">
-        <f>[2]Sheet1!B14</f>
-        <v>8.7189186467420363</v>
-      </c>
-      <c r="C15">
-        <f>[1]Sheet1!B14</f>
-        <v>2.7383740265925178</v>
-      </c>
-      <c r="D15">
-        <f>[2]Sheet1!C14</f>
-        <v>6.8718394292834848</v>
-      </c>
-      <c r="E15">
-        <f>[1]Sheet1!C14</f>
-        <v>4.6729912522057742</v>
-      </c>
-      <c r="F15">
-        <f>[2]Sheet1!D14</f>
-        <v>5.5137512651107237</v>
-      </c>
-      <c r="G15">
-        <f>[1]Sheet1!D14</f>
-        <v>3.8691895871587789</v>
-      </c>
-      <c r="H15">
-        <f>[2]Sheet1!E14</f>
-        <v>6.2906177111969557</v>
-      </c>
-      <c r="I15">
-        <f>[1]Sheet1!E14</f>
-        <v>2.9583395070331218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:17">
       <c r="A16" t="str">
         <f>[1]Sheet1!A15</f>
         <v>AVGV</v>
@@ -4206,32 +4940,32 @@
         <f>[1]Sheet1!B15</f>
         <v>52.794909115384556</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f>[2]Sheet1!C15</f>
         <v>51.061360357737037</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f>[1]Sheet1!C15</f>
         <v>52.156184763705099</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <f>[2]Sheet1!D15</f>
         <v>51.902301749146751</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <f>[1]Sheet1!D15</f>
         <v>53.322853628874142</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <f>[2]Sheet1!E15</f>
         <v>55.96504116198922</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <f>[1]Sheet1!E15</f>
         <v>53.240726624902145</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:17">
       <c r="A17" t="str">
         <f>[1]Sheet1!A16</f>
         <v>SD</v>
@@ -4244,247 +4978,682 @@
         <f>[1]Sheet1!B16</f>
         <v>15.581318756261902</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f>[2]Sheet1!C16</f>
         <v>15.95293612021689</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f>[1]Sheet1!C16</f>
         <v>16.150525996257493</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <f>[2]Sheet1!D16</f>
         <v>16.233562764891882</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <f>[1]Sheet1!D16</f>
         <v>17.336873831927306</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <f>[2]Sheet1!E16</f>
         <v>16.827886521383302</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <f>[1]Sheet1!E16</f>
         <v>17.075315517874007</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="str">
-        <f>[1]Sheet1!A17</f>
-        <v>CV</v>
-      </c>
-      <c r="B18">
-        <f>[2]Sheet1!B17</f>
-        <v>3.263407519875686</v>
+    <row r="18" spans="1:17">
+      <c r="B18" s="4">
+        <f>'[2]1'!$G$185</f>
+        <v>64.215800000000002</v>
       </c>
       <c r="C18">
-        <f>[1]Sheet1!B17</f>
-        <v>3.388346643904391</v>
+        <f>'[1]1'!$F$382</f>
+        <v>49.949199999999998</v>
       </c>
       <c r="D18">
-        <f>[2]Sheet1!C17</f>
-        <v>3.2007500044476345</v>
-      </c>
-      <c r="E18">
-        <f>[1]Sheet1!C17</f>
-        <v>3.2293799456309396</v>
+        <f>[3]SaveData1!$F$138</f>
+        <v>73.993600000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <f>'[2]10'!$G$217</f>
+        <v>64.452600000000004</v>
       </c>
       <c r="F18">
-        <f>[2]Sheet1!D17</f>
-        <v>3.1972218607116356</v>
+        <f>'[1]10'!$F$397</f>
+        <v>49.426099999999998</v>
       </c>
       <c r="G18">
-        <f>[1]Sheet1!D17</f>
-        <v>3.0756902395330141</v>
-      </c>
-      <c r="H18">
-        <f>[2]Sheet1!E17</f>
-        <v>3.3257320276598068</v>
+        <f>[3]SaveData!$F$177</f>
+        <v>73.730500000000006</v>
+      </c>
+      <c r="H18" s="4">
+        <f>'[2]20'!$F$167</f>
+        <v>73.4559</v>
       </c>
       <c r="I18">
-        <f>[1]Sheet1!E17</f>
-        <v>3.1179937242841049</v>
+        <f>'[1]20'!$F$436</f>
+        <v>51.650300000000001</v>
+      </c>
+      <c r="J18">
+        <f>[3]SaveData2!$F$118</f>
+        <v>83.172600000000003</v>
+      </c>
+      <c r="K18" s="4">
+        <f>'[2]30'!$F$165</f>
+        <v>67.536799999999999</v>
+      </c>
+      <c r="L18">
+        <f>'[1]30'!$F$386</f>
+        <v>42.870100000000001</v>
+      </c>
+      <c r="M18">
+        <f>[3]SaveData3!$F$228</f>
+        <v>57.048999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="str">
-        <f>[1]Sheet1!A18</f>
-        <v>AVGX</v>
-      </c>
-      <c r="B19">
-        <f>[2]Sheet1!B18</f>
-        <v>-0.78335293356341373</v>
+    <row r="19" spans="1:17">
+      <c r="B19" s="4">
+        <f>'[2]1'!$G$566</f>
+        <v>40.0702</v>
       </c>
       <c r="C19">
-        <f>[1]Sheet1!B18</f>
-        <v>-1.0943819230769216</v>
+        <f>'[1]1'!$F$586</f>
+        <v>64.096599999999995</v>
       </c>
       <c r="D19">
-        <f>[2]Sheet1!C18</f>
-        <v>-0.76989812811979907</v>
-      </c>
-      <c r="E19">
-        <f>[1]Sheet1!C18</f>
-        <v>-1.0896227221172008</v>
+        <f>[3]SaveData1!$F$459</f>
+        <v>38.301900000000003</v>
+      </c>
+      <c r="E19" s="4">
+        <f>'[2]10'!$G$595</f>
+        <v>45.073099999999997</v>
       </c>
       <c r="F19">
-        <f>[2]Sheet1!D18</f>
-        <v>-0.62796335324232055</v>
+        <f>'[1]10'!$F$606</f>
+        <v>61.619</v>
       </c>
       <c r="G19">
-        <f>[1]Sheet1!D18</f>
-        <v>-1.0748652020400182</v>
-      </c>
-      <c r="H19">
-        <f>[2]Sheet1!E18</f>
-        <v>-0.68154761201378677</v>
+        <f>[3]SaveData!$F$320</f>
+        <v>65.196100000000001</v>
+      </c>
+      <c r="H19" s="4">
+        <f>'[2]20'!$F$518</f>
+        <v>50.805900000000001</v>
       </c>
       <c r="I19">
-        <f>[1]Sheet1!E18</f>
-        <v>-1.1104055207517587</v>
+        <f>'[1]20'!$F$626</f>
+        <v>63.137300000000003</v>
+      </c>
+      <c r="J19">
+        <f>[3]SaveData2!$F$442</f>
+        <v>39.557099999999998</v>
+      </c>
+      <c r="K19" s="4">
+        <f>'[2]30'!$F$329</f>
+        <v>67.450699999999998</v>
+      </c>
+      <c r="L19">
+        <f>'[1]30'!$F$604</f>
+        <v>70.766900000000007</v>
+      </c>
+      <c r="M19">
+        <f>[3]SaveData3!$F$405</f>
+        <v>70.928399999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="str">
-        <f>[1]Sheet1!A19</f>
-        <v>SD</v>
-      </c>
-      <c r="B20">
-        <f>[2]Sheet1!B19</f>
-        <v>0.51335864725745595</v>
+    <row r="20" spans="1:17">
+      <c r="B20" s="4">
+        <f>'[2]1'!$G$984</f>
+        <v>47.117800000000003</v>
       </c>
       <c r="C20">
-        <f>[1]Sheet1!B19</f>
-        <v>0.49390825952506112</v>
+        <f>'[1]1'!$F$781</f>
+        <v>70.650800000000004</v>
       </c>
       <c r="D20">
-        <f>[2]Sheet1!C19</f>
-        <v>0.51297050556994506</v>
-      </c>
-      <c r="E20">
-        <f>[1]Sheet1!C19</f>
-        <v>0.53676477034024461</v>
+        <f>[3]SaveData1!$F$681</f>
+        <v>60.350900000000003</v>
+      </c>
+      <c r="E20" s="4">
+        <f>'[2]10'!$G$1059</f>
+        <v>49.835599999999999</v>
       </c>
       <c r="F20">
-        <f>[2]Sheet1!D19</f>
-        <v>0.49111174075981384</v>
+        <f>'[1]10'!$F$814</f>
+        <v>67.322299999999998</v>
       </c>
       <c r="G20">
-        <f>[1]Sheet1!D19</f>
-        <v>0.4659060999130738</v>
-      </c>
-      <c r="H20">
-        <f>[2]Sheet1!E19</f>
-        <v>0.41702235163788642</v>
+        <f>[3]SaveData!$F$674</f>
+        <v>47.239600000000003</v>
+      </c>
+      <c r="H20" s="4">
+        <f>'[2]20'!$F$706</f>
+        <v>73.628299999999996</v>
       </c>
       <c r="I20">
-        <f>[1]Sheet1!E19</f>
-        <v>0.5401742148612857</v>
+        <f>'[1]20'!$F$826</f>
+        <v>68.394599999999997</v>
+      </c>
+      <c r="J20">
+        <f>[3]SaveData2!$F$650</f>
+        <v>66.520600000000002</v>
+      </c>
+      <c r="K20" s="4">
+        <f>'[2]30'!$F$661</f>
+        <v>49.764400000000002</v>
+      </c>
+      <c r="L20">
+        <f>'[1]30'!$F$782</f>
+        <v>68.212999999999994</v>
+      </c>
+      <c r="M20">
+        <f>[3]SaveData3!$F$541</f>
+        <v>78.807299999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="str">
-        <f>[1]Sheet1!A20</f>
-        <v>CV</v>
-      </c>
-      <c r="B21">
-        <f>[2]Sheet1!B20</f>
-        <v>-1.5259369599564809</v>
+    <row r="21" spans="1:17">
+      <c r="B21" s="4">
+        <f>'[2]1'!$G$1191</f>
+        <v>57.624699999999997</v>
       </c>
       <c r="C21">
-        <f>[1]Sheet1!B20</f>
-        <v>-2.2157595099326177</v>
+        <f>'[1]1'!$F$953</f>
+        <v>69.0852</v>
       </c>
       <c r="D21">
-        <f>[2]Sheet1!C20</f>
-        <v>-1.5008623688108345</v>
-      </c>
-      <c r="E21">
-        <f>[1]Sheet1!C20</f>
-        <v>-2.0299818138707395</v>
+        <f>[3]SaveData1!$F$848</f>
+        <v>68.141499999999994</v>
+      </c>
+      <c r="E21" s="4">
+        <f>'[2]10'!$G$1281</f>
+        <v>58.162300000000002</v>
       </c>
       <c r="F21">
-        <f>[2]Sheet1!D20</f>
-        <v>-1.2786567722261728</v>
+        <f>'[1]10'!$F$997</f>
+        <v>60.209699999999998</v>
       </c>
       <c r="G21">
-        <f>[1]Sheet1!D20</f>
-        <v>-2.3070425612383283</v>
-      </c>
-      <c r="H21">
-        <f>[2]Sheet1!E20</f>
-        <v>-1.6343191422161369</v>
+        <f>[3]SaveData!$F$880</f>
+        <v>61.595999999999997</v>
+      </c>
+      <c r="H21" s="4">
+        <f>'[2]20'!$F$874</f>
+        <v>63.103299999999997</v>
       </c>
       <c r="I21">
-        <f>[1]Sheet1!E20</f>
-        <v>-2.0556433280268771</v>
+        <f>'[1]20'!$F$1005</f>
+        <v>61.5488</v>
+      </c>
+      <c r="J21">
+        <f>[3]SaveData2!$F$801</f>
+        <v>73.630799999999994</v>
+      </c>
+      <c r="K21" s="4">
+        <f>'[2]30'!$F$1114</f>
+        <v>44.714399999999998</v>
+      </c>
+      <c r="L21">
+        <f>'[1]30'!$F$962</f>
+        <v>64.547300000000007</v>
+      </c>
+      <c r="M21">
+        <f>[3]SaveData3!$F$674</f>
+        <v>68.587999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="B22">
-        <f>[2]Sheet1!B21</f>
-        <v>7.9148403796376211E-3</v>
+    <row r="22" spans="1:17">
+      <c r="B22" s="4">
+        <f>'[2]1'!$G$1563</f>
+        <v>38.174500000000002</v>
+      </c>
+      <c r="C22">
+        <f>'[1]1'!$F$1130</f>
+        <v>66.221199999999996</v>
       </c>
       <c r="D22">
-        <f>[2]Sheet1!C21</f>
-        <v>1.0940224625623957E-2</v>
+        <f>[3]SaveData1!$F$1004</f>
+        <v>64.792199999999994</v>
+      </c>
+      <c r="E22" s="4">
+        <f>'[2]10'!$G$1654</f>
+        <v>42.823</v>
       </c>
       <c r="F22">
-        <f>[2]Sheet1!D21</f>
-        <v>1.9542491467576806E-2</v>
-      </c>
-      <c r="H22">
-        <f>[2]Sheet1!E21</f>
-        <v>9.0894140817331399E-3</v>
+        <f>'[1]10'!$F$1436</f>
+        <v>56.113500000000002</v>
+      </c>
+      <c r="G22">
+        <f>[3]SaveData!$F$1043</f>
+        <v>64.503600000000006</v>
+      </c>
+      <c r="H22" s="4">
+        <f>'[2]20'!$F$1275</f>
+        <v>50.4529</v>
+      </c>
+      <c r="I22">
+        <f>'[1]20'!$F$1412</f>
+        <v>50.632899999999999</v>
+      </c>
+      <c r="J22">
+        <f>[3]SaveData2!$F$945</f>
+        <v>66.292400000000001</v>
+      </c>
+      <c r="K22" s="4">
+        <f>'[2]30'!$F$1309</f>
+        <v>62.981099999999998</v>
+      </c>
+      <c r="L22">
+        <f>'[1]30'!$F$1153</f>
+        <v>65.819299999999998</v>
+      </c>
+      <c r="M22">
+        <f>[3]SaveData3!$F$827</f>
+        <v>68.774900000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="B23">
-        <f>[2]Sheet1!B22</f>
-        <v>4.3252071072572278E-2</v>
+    <row r="23" spans="1:17">
+      <c r="B23" s="4">
+        <f>'[2]1(1)'!$F$174</f>
+        <v>64.614900000000006</v>
+      </c>
+      <c r="C23">
+        <f>'[1]1(1)'!$F$408</f>
+        <v>50.597099999999998</v>
       </c>
       <c r="D23">
-        <f>[2]Sheet1!C22</f>
-        <v>5.5074536395544459E-2</v>
+        <f>[3]SaveData4!$F$205</f>
+        <v>63.688200000000002</v>
+      </c>
+      <c r="E23" s="4">
+        <f>'[2]10(1)'!$F$204</f>
+        <v>59.9467</v>
       </c>
       <c r="F23">
-        <f>[2]Sheet1!D22</f>
-        <v>7.614911758616083E-2</v>
-      </c>
-      <c r="H23">
-        <f>[2]Sheet1!E22</f>
-        <v>4.0431927963178772E-2</v>
+        <f>'[1]10(1)'!$F$397</f>
+        <v>42.028199999999998</v>
+      </c>
+      <c r="G23">
+        <f>[3]SaveData6!$F$157</f>
+        <v>67.756</v>
+      </c>
+      <c r="H23" s="4">
+        <f>'[2]20(1)'!$F$410</f>
+        <v>41.4133</v>
+      </c>
+      <c r="I23">
+        <f>'[1]20(1)'!$F$215</f>
+        <v>62.324199999999998</v>
+      </c>
+      <c r="J23">
+        <f>[3]SaveData7!$F$122</f>
+        <v>78.155299999999997</v>
+      </c>
+      <c r="K23" s="4">
+        <f>'[2]30(1)'!$F$135</f>
+        <v>77.270399999999995</v>
+      </c>
+      <c r="L23">
+        <f>'[1]30(1)'!$F$396</f>
+        <v>45.101500000000001</v>
+      </c>
+      <c r="M23">
+        <f>[3]SaveData5!$F$184</f>
+        <v>70.139799999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="B24">
-        <f>[2]Sheet1!B23</f>
-        <v>0.18299332687115441</v>
+    <row r="24" spans="1:17">
+      <c r="B24" s="4">
+        <f>'[2]1(1)'!$F$320</f>
+        <v>74.070800000000006</v>
+      </c>
+      <c r="C24">
+        <f>'[1]1(1)'!$F$603</f>
+        <v>63.497399999999999</v>
       </c>
       <c r="D24">
-        <f>[2]Sheet1!C23</f>
-        <v>0.19864397127288436</v>
+        <f>[3]SaveData4!$F$379</f>
+        <v>63.793500000000002</v>
+      </c>
+      <c r="E24" s="4">
+        <f>'[2]10(1)'!$F$364</f>
+        <v>69.998800000000003</v>
       </c>
       <c r="F24">
-        <f>[2]Sheet1!D23</f>
-        <v>0.25663450985449654</v>
-      </c>
-      <c r="H24">
-        <f>[2]Sheet1!E23</f>
-        <v>0.22480783231536325</v>
+        <f>'[1]10(1)'!$F$625</f>
+        <v>59.507599999999996</v>
+      </c>
+      <c r="G24">
+        <f>[3]SaveData6!$F$302</f>
+        <v>72.771799999999999</v>
+      </c>
+      <c r="H24" s="4">
+        <f>'[2]20(1)'!$F$610</f>
+        <v>65.077699999999993</v>
+      </c>
+      <c r="I24">
+        <f>'[1]20(1)'!$F$408</f>
+        <v>62.0779</v>
+      </c>
+      <c r="J24">
+        <f>[3]SaveData7!$F$256</f>
+        <v>71.495699999999999</v>
+      </c>
+      <c r="K24" s="4">
+        <f>'[2]30(1)'!$F$253</f>
+        <v>83.088800000000006</v>
+      </c>
+      <c r="L24">
+        <f>'[1]30(1)'!$F$604</f>
+        <v>67.766599999999997</v>
+      </c>
+      <c r="M24">
+        <f>[3]SaveData5!$F$339</f>
+        <v>70.787000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="B25" s="4">
+        <f>'[2]1(1)'!$F$466</f>
+        <v>69.419899999999998</v>
+      </c>
+      <c r="C25">
+        <f>'[1]1(1)'!$F$823</f>
+        <v>55.7515</v>
+      </c>
+      <c r="D25">
+        <f>[3]SaveData4!$F$539</f>
+        <v>66.974900000000005</v>
+      </c>
+      <c r="E25" s="4">
+        <f>'[2]10(1)'!$F$504</f>
+        <v>75.975399999999993</v>
+      </c>
+      <c r="F25">
+        <f>'[1]10(1)'!$F$842</f>
+        <v>63.148499999999999</v>
+      </c>
+      <c r="G25">
+        <f>[3]SaveData6!$F$435</f>
+        <v>73.881100000000004</v>
+      </c>
+      <c r="H25" s="4">
+        <f>'[2]20(1)'!$F$777</f>
+        <v>64.836500000000001</v>
+      </c>
+      <c r="I25">
+        <f>'[1]20(1)'!$F$765</f>
+        <v>52.339700000000001</v>
+      </c>
+      <c r="J25">
+        <f>[3]SaveData7!$F$416</f>
+        <v>60.014699999999998</v>
+      </c>
+      <c r="K25" s="4">
+        <f>'[2]30(1)'!$F$385</f>
+        <v>66.074600000000004</v>
+      </c>
+      <c r="L25">
+        <f>'[1]30(1)'!$F$812</f>
+        <v>61.385399999999997</v>
+      </c>
+      <c r="M25">
+        <f>[3]SaveData5!$F$486</f>
+        <v>73.007400000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="B26" s="4">
+        <f>'[2]1(1)'!$F$613</f>
+        <v>74.030799999999999</v>
+      </c>
+      <c r="C26">
+        <f>'[1]1(1)'!$F$1252</f>
+        <v>49.964700000000001</v>
+      </c>
+      <c r="D26">
+        <f>[3]SaveData4!$F$864</f>
+        <v>42.3399</v>
+      </c>
+      <c r="E26" s="4">
+        <f>'[2]10(1)'!$F$630</f>
+        <v>80.5715</v>
+      </c>
+      <c r="F26">
+        <f>'[1]10(1)'!$F$1026</f>
+        <v>66.563699999999997</v>
+      </c>
+      <c r="G26">
+        <f>[3]SaveData6!$F$556</f>
+        <v>82.572599999999994</v>
+      </c>
+      <c r="H26" s="4">
+        <f>'[2]20(1)'!$F$931</f>
+        <v>74.374700000000004</v>
+      </c>
+      <c r="I26">
+        <f>'[1]20(1)'!$F$945</f>
+        <v>65.529700000000005</v>
+      </c>
+      <c r="J26">
+        <f>[3]SaveData7!$F$592</f>
+        <v>64.113399999999999</v>
+      </c>
+      <c r="K26" s="4">
+        <f>'[2]30(1)'!$F$573</f>
+        <v>69.933700000000002</v>
+      </c>
+      <c r="L26">
+        <f>'[1]30(1)'!$F$1008</f>
+        <v>63.999099999999999</v>
+      </c>
+      <c r="M26">
+        <f>[3]SaveData5!$F$640</f>
+        <v>64.974999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="B27" s="4">
+        <f>'[2]1(1)'!$F$758</f>
+        <v>68.969800000000006</v>
+      </c>
+      <c r="C27">
+        <f>'[1]1(1)'!$F$1472</f>
+        <v>55.570099999999996</v>
+      </c>
+      <c r="D27">
+        <f>[3]SaveData4!$F$1066</f>
+        <v>63.462899999999998</v>
+      </c>
+      <c r="E27" s="4">
+        <f>'[2]10(1)'!$F$752</f>
+        <v>78.622799999999998</v>
+      </c>
+      <c r="F27">
+        <f>'[1]10(1)'!$F$1211</f>
+        <v>61.431100000000001</v>
+      </c>
+      <c r="G27">
+        <f>[3]SaveData6!$F$673</f>
+        <v>79.916600000000003</v>
+      </c>
+      <c r="H27" s="4">
+        <f>'[2]20(1)'!$F$1071</f>
+        <v>72.039000000000001</v>
+      </c>
+      <c r="I27">
+        <f>'[1]20(1)'!$F$1139</f>
+        <v>67.949700000000007</v>
+      </c>
+      <c r="J27">
+        <f>[3]SaveData7!$F$745</f>
+        <v>71.264600000000002</v>
+      </c>
+      <c r="K27" s="4">
+        <f>'[2]30(1)'!$F$724</f>
+        <v>72.300200000000004</v>
+      </c>
+      <c r="L27">
+        <f>'[1]30(1)'!$F$1403</f>
+        <v>50.360100000000003</v>
+      </c>
+      <c r="M27">
+        <f>[3]SaveData5!$F$819</f>
+        <v>58.678400000000003</v>
+      </c>
+      <c r="N27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <f>AVERAGE(B18:B27)</f>
+        <v>59.830920000000006</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:M28" si="2">AVERAGE(C18:C27)</f>
+        <v>59.538380000000004</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>60.583949999999994</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>62.546179999999993</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>58.736970000000007</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>68.916390000000007</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>62.918750000000003</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>60.558509999999998</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>67.421719999999993</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>66.11151000000001</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>60.082929999999998</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>68.173519999999996</v>
+      </c>
+      <c r="N28">
+        <f>AVERAGE(B$18:D$27)</f>
+        <v>59.984416666666661</v>
+      </c>
+      <c r="O28">
+        <f>AVERAGE(E$18:G$27)</f>
+        <v>63.399846666666669</v>
+      </c>
+      <c r="P28">
+        <f>AVERAGE(H$18:J$27)</f>
+        <v>63.632993333333324</v>
+      </c>
+      <c r="Q28">
+        <f>AVERAGE(K$18:M$27)</f>
+        <v>64.789319999999989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <f>_xlfn.STDEV.P(B18:B27)</f>
+        <v>12.837326379491946</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:M29" si="3">_xlfn.STDEV.P(C18:C27)</f>
+        <v>7.6771144227241734</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>10.738269145281327</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>13.056556596882675</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>7.3858805716108389</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>9.6349156251053802</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>11.014170698264119</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>6.3184376431916274</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>11.302880295464547</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>10.974280178439903</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>9.6146324856491994</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>6.1595925377901422</v>
+      </c>
+      <c r="N29">
+        <f>_xlfn.STDEV.P(B$18:D$27)</f>
+        <v>10.639978208345001</v>
+      </c>
+      <c r="O29">
+        <f>_xlfn.STDEV.P(E$18:G$27)</f>
+        <v>11.116952775280733</v>
+      </c>
+      <c r="P29">
+        <f>_xlfn.STDEV.P(H$18:J$27)</f>
+        <v>10.219373014946758</v>
+      </c>
+      <c r="Q29">
+        <f>_xlfn.STDEV.P(K$18:M$27)</f>
+        <v>9.7667406089716167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B17 D17 F17 H17">
-    <cfRule type="colorScale" priority="1">
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C17:D17 F17:G17 I17:J17 L17">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4495,8 +5664,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17 C17 G17 I17">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E17 B17 H17 K17">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Assets/Excel Data/2023_11_24/まとめ.xlsx
+++ b/Assets/Excel Data/2023_11_24/まとめ.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DrivingTeam\UnityProject\Fujita_Project_2023\Assets\Excel Data\2023_11_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6E5925-DF79-48DB-9E9B-5B16F153950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E978EDF-2101-4946-B94E-996D44618E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28815" yWindow="45" windowWidth="14400" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V" sheetId="2" r:id="rId2"/>
+    <sheet name="x" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -132,9 +134,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -143,6 +142,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3260,6 +3262,9 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="A2" t="str">
+            <v>Dist</v>
+          </cell>
           <cell r="B2">
             <v>0.83399999999999996</v>
           </cell>
@@ -4197,8 +4202,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4211,30 +4216,30 @@
         <f>[1]Sheet1!A1</f>
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="4">
         <f>[1]Sheet1!B1</f>
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4">
         <f>[1]Sheet1!C1</f>
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4">
         <f>[1]Sheet1!D1</f>
         <v>20</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4">
         <f>[1]Sheet1!E1</f>
         <v>30</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -4299,7 +4304,7 @@
         <f>[1]Sheet1!C2</f>
         <v>1.1355999999999999</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.55100000000000005</v>
       </c>
       <c r="H3">
@@ -4310,7 +4315,7 @@
         <f>[1]Sheet1!D2</f>
         <v>0.65659999999999996</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>1.5392999999999999</v>
       </c>
       <c r="K3">
@@ -4321,7 +4326,7 @@
         <f>[1]Sheet1!E2</f>
         <v>0.89419999999999999</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>1.8001</v>
       </c>
     </row>
@@ -4350,7 +4355,7 @@
         <f>[1]Sheet1!C3</f>
         <v>0.74019999999999997</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.70199999999999996</v>
       </c>
       <c r="H4">
@@ -4361,7 +4366,7 @@
         <f>[1]Sheet1!D3</f>
         <v>0.77529999999999999</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>1.3973</v>
       </c>
       <c r="K4">
@@ -4372,7 +4377,7 @@
         <f>[1]Sheet1!E3</f>
         <v>1.3009999999999999</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>1.2907</v>
       </c>
     </row>
@@ -4401,7 +4406,7 @@
         <f>[1]Sheet1!C4</f>
         <v>0.52449999999999997</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.84870000000000001</v>
       </c>
       <c r="H5">
@@ -4412,7 +4417,7 @@
         <f>[1]Sheet1!D4</f>
         <v>0.43190000000000001</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>1.0243</v>
       </c>
       <c r="K5">
@@ -4423,7 +4428,7 @@
         <f>[1]Sheet1!E4</f>
         <v>0.96140000000000003</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>1.4544999999999999</v>
       </c>
     </row>
@@ -4452,7 +4457,7 @@
         <f>[1]Sheet1!C5</f>
         <v>0.77759999999999996</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>1.0537000000000001</v>
       </c>
       <c r="H6">
@@ -4463,7 +4468,7 @@
         <f>[1]Sheet1!D5</f>
         <v>0.75319999999999998</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>1.3444</v>
       </c>
       <c r="K6">
@@ -4474,7 +4479,7 @@
         <f>[1]Sheet1!E5</f>
         <v>0.61219999999999997</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>1.4401999999999999</v>
       </c>
     </row>
@@ -4503,7 +4508,7 @@
         <f>[1]Sheet1!C6</f>
         <v>1.0081</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.90610000000000002</v>
       </c>
       <c r="H7">
@@ -4514,7 +4519,7 @@
         <f>[1]Sheet1!D6</f>
         <v>0.59370000000000001</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>1.7152000000000001</v>
       </c>
       <c r="K7">
@@ -4525,7 +4530,7 @@
         <f>[1]Sheet1!E6</f>
         <v>0.78949999999999998</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>1.1600999999999999</v>
       </c>
     </row>
@@ -4542,7 +4547,7 @@
         <f>[1]Sheet1!B7</f>
         <v>0.82</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1.1511</v>
       </c>
       <c r="E8">
@@ -4553,7 +4558,7 @@
         <f>[1]Sheet1!C7</f>
         <v>0.68610000000000004</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>1.3178000000000001</v>
       </c>
       <c r="H8">
@@ -4564,7 +4569,7 @@
         <f>[1]Sheet1!D7</f>
         <v>0.75680000000000003</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>1.3989</v>
       </c>
       <c r="K8">
@@ -4593,7 +4598,7 @@
         <f>[1]Sheet1!B8</f>
         <v>0.9536</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>1.4525999999999999</v>
       </c>
       <c r="E9">
@@ -4604,7 +4609,7 @@
         <f>[1]Sheet1!C8</f>
         <v>0.76490000000000002</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>1.3513999999999999</v>
       </c>
       <c r="H9">
@@ -4615,7 +4620,7 @@
         <f>[1]Sheet1!D8</f>
         <v>0.52190000000000003</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>1.6527000000000001</v>
       </c>
       <c r="K9">
@@ -4644,7 +4649,7 @@
         <f>[1]Sheet1!B9</f>
         <v>0.98480000000000001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>1.3819999999999999</v>
       </c>
       <c r="E10">
@@ -4655,7 +4660,7 @@
         <f>[1]Sheet1!C9</f>
         <v>0.67459999999999998</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>1.2629999999999999</v>
       </c>
       <c r="H10">
@@ -4666,7 +4671,7 @@
         <f>[1]Sheet1!D9</f>
         <v>0.37119999999999997</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>1.494</v>
       </c>
       <c r="K10">
@@ -4695,7 +4700,7 @@
         <f>[1]Sheet1!B10</f>
         <v>1.0807</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>1.6245000000000001</v>
       </c>
       <c r="E11">
@@ -4706,7 +4711,7 @@
         <f>[1]Sheet1!C10</f>
         <v>0.99150000000000005</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>1.7232000000000001</v>
       </c>
       <c r="H11">
@@ -4717,7 +4722,7 @@
         <f>[1]Sheet1!D10</f>
         <v>0.4279</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>1.5097</v>
       </c>
       <c r="K11">
@@ -4746,7 +4751,7 @@
         <f>[1]Sheet1!B11</f>
         <v>0.65629999999999999</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>1.5738000000000001</v>
       </c>
       <c r="E12">
@@ -4757,7 +4762,7 @@
         <f>[1]Sheet1!C11</f>
         <v>0.80879999999999996</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>1.7151000000000001</v>
       </c>
       <c r="H12">
@@ -4768,7 +4773,7 @@
         <f>[1]Sheet1!D11</f>
         <v>0.4325</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>1.5506</v>
       </c>
       <c r="K12">
@@ -5004,7 +5009,7 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <f>'[2]1'!$G$185</f>
         <v>64.215800000000002</v>
       </c>
@@ -5016,7 +5021,7 @@
         <f>[3]SaveData1!$F$138</f>
         <v>73.993600000000001</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f>'[2]10'!$G$217</f>
         <v>64.452600000000004</v>
       </c>
@@ -5028,7 +5033,7 @@
         <f>[3]SaveData!$F$177</f>
         <v>73.730500000000006</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f>'[2]20'!$F$167</f>
         <v>73.4559</v>
       </c>
@@ -5040,7 +5045,7 @@
         <f>[3]SaveData2!$F$118</f>
         <v>83.172600000000003</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f>'[2]30'!$F$165</f>
         <v>67.536799999999999</v>
       </c>
@@ -5054,7 +5059,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <f>'[2]1'!$G$566</f>
         <v>40.0702</v>
       </c>
@@ -5066,7 +5071,7 @@
         <f>[3]SaveData1!$F$459</f>
         <v>38.301900000000003</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f>'[2]10'!$G$595</f>
         <v>45.073099999999997</v>
       </c>
@@ -5078,7 +5083,7 @@
         <f>[3]SaveData!$F$320</f>
         <v>65.196100000000001</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f>'[2]20'!$F$518</f>
         <v>50.805900000000001</v>
       </c>
@@ -5090,7 +5095,7 @@
         <f>[3]SaveData2!$F$442</f>
         <v>39.557099999999998</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f>'[2]30'!$F$329</f>
         <v>67.450699999999998</v>
       </c>
@@ -5104,7 +5109,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <f>'[2]1'!$G$984</f>
         <v>47.117800000000003</v>
       </c>
@@ -5116,7 +5121,7 @@
         <f>[3]SaveData1!$F$681</f>
         <v>60.350900000000003</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f>'[2]10'!$G$1059</f>
         <v>49.835599999999999</v>
       </c>
@@ -5128,7 +5133,7 @@
         <f>[3]SaveData!$F$674</f>
         <v>47.239600000000003</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f>'[2]20'!$F$706</f>
         <v>73.628299999999996</v>
       </c>
@@ -5140,7 +5145,7 @@
         <f>[3]SaveData2!$F$650</f>
         <v>66.520600000000002</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f>'[2]30'!$F$661</f>
         <v>49.764400000000002</v>
       </c>
@@ -5154,7 +5159,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <f>'[2]1'!$G$1191</f>
         <v>57.624699999999997</v>
       </c>
@@ -5166,7 +5171,7 @@
         <f>[3]SaveData1!$F$848</f>
         <v>68.141499999999994</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f>'[2]10'!$G$1281</f>
         <v>58.162300000000002</v>
       </c>
@@ -5178,7 +5183,7 @@
         <f>[3]SaveData!$F$880</f>
         <v>61.595999999999997</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <f>'[2]20'!$F$874</f>
         <v>63.103299999999997</v>
       </c>
@@ -5190,7 +5195,7 @@
         <f>[3]SaveData2!$F$801</f>
         <v>73.630799999999994</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <f>'[2]30'!$F$1114</f>
         <v>44.714399999999998</v>
       </c>
@@ -5204,7 +5209,7 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <f>'[2]1'!$G$1563</f>
         <v>38.174500000000002</v>
       </c>
@@ -5216,7 +5221,7 @@
         <f>[3]SaveData1!$F$1004</f>
         <v>64.792199999999994</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <f>'[2]10'!$G$1654</f>
         <v>42.823</v>
       </c>
@@ -5228,7 +5233,7 @@
         <f>[3]SaveData!$F$1043</f>
         <v>64.503600000000006</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f>'[2]20'!$F$1275</f>
         <v>50.4529</v>
       </c>
@@ -5240,7 +5245,7 @@
         <f>[3]SaveData2!$F$945</f>
         <v>66.292400000000001</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f>'[2]30'!$F$1309</f>
         <v>62.981099999999998</v>
       </c>
@@ -5254,7 +5259,7 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <f>'[2]1(1)'!$F$174</f>
         <v>64.614900000000006</v>
       </c>
@@ -5266,7 +5271,7 @@
         <f>[3]SaveData4!$F$205</f>
         <v>63.688200000000002</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <f>'[2]10(1)'!$F$204</f>
         <v>59.9467</v>
       </c>
@@ -5278,7 +5283,7 @@
         <f>[3]SaveData6!$F$157</f>
         <v>67.756</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f>'[2]20(1)'!$F$410</f>
         <v>41.4133</v>
       </c>
@@ -5290,7 +5295,7 @@
         <f>[3]SaveData7!$F$122</f>
         <v>78.155299999999997</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f>'[2]30(1)'!$F$135</f>
         <v>77.270399999999995</v>
       </c>
@@ -5304,7 +5309,7 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <f>'[2]1(1)'!$F$320</f>
         <v>74.070800000000006</v>
       </c>
@@ -5316,7 +5321,7 @@
         <f>[3]SaveData4!$F$379</f>
         <v>63.793500000000002</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <f>'[2]10(1)'!$F$364</f>
         <v>69.998800000000003</v>
       </c>
@@ -5328,7 +5333,7 @@
         <f>[3]SaveData6!$F$302</f>
         <v>72.771799999999999</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <f>'[2]20(1)'!$F$610</f>
         <v>65.077699999999993</v>
       </c>
@@ -5340,7 +5345,7 @@
         <f>[3]SaveData7!$F$256</f>
         <v>71.495699999999999</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <f>'[2]30(1)'!$F$253</f>
         <v>83.088800000000006</v>
       </c>
@@ -5354,7 +5359,7 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <f>'[2]1(1)'!$F$466</f>
         <v>69.419899999999998</v>
       </c>
@@ -5366,7 +5371,7 @@
         <f>[3]SaveData4!$F$539</f>
         <v>66.974900000000005</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <f>'[2]10(1)'!$F$504</f>
         <v>75.975399999999993</v>
       </c>
@@ -5378,7 +5383,7 @@
         <f>[3]SaveData6!$F$435</f>
         <v>73.881100000000004</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f>'[2]20(1)'!$F$777</f>
         <v>64.836500000000001</v>
       </c>
@@ -5390,7 +5395,7 @@
         <f>[3]SaveData7!$F$416</f>
         <v>60.014699999999998</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f>'[2]30(1)'!$F$385</f>
         <v>66.074600000000004</v>
       </c>
@@ -5404,7 +5409,7 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <f>'[2]1(1)'!$F$613</f>
         <v>74.030799999999999</v>
       </c>
@@ -5416,7 +5421,7 @@
         <f>[3]SaveData4!$F$864</f>
         <v>42.3399</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <f>'[2]10(1)'!$F$630</f>
         <v>80.5715</v>
       </c>
@@ -5428,7 +5433,7 @@
         <f>[3]SaveData6!$F$556</f>
         <v>82.572599999999994</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <f>'[2]20(1)'!$F$931</f>
         <v>74.374700000000004</v>
       </c>
@@ -5440,7 +5445,7 @@
         <f>[3]SaveData7!$F$592</f>
         <v>64.113399999999999</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f>'[2]30(1)'!$F$573</f>
         <v>69.933700000000002</v>
       </c>
@@ -5454,7 +5459,7 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <f>'[2]1(1)'!$F$758</f>
         <v>68.969800000000006</v>
       </c>
@@ -5466,7 +5471,7 @@
         <f>[3]SaveData4!$F$1066</f>
         <v>63.462899999999998</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <f>'[2]10(1)'!$F$752</f>
         <v>78.622799999999998</v>
       </c>
@@ -5478,7 +5483,7 @@
         <f>[3]SaveData6!$F$673</f>
         <v>79.916600000000003</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f>'[2]20(1)'!$F$1071</f>
         <v>72.039000000000001</v>
       </c>
@@ -5490,7 +5495,7 @@
         <f>[3]SaveData7!$F$745</f>
         <v>71.264600000000002</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f>'[2]30(1)'!$F$724</f>
         <v>72.300200000000004</v>
       </c>
@@ -5652,8 +5657,8 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C17:D17 F17:G17 I17:J17 L17">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B17 E17 H17 K17">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5664,8 +5669,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17 B17 H17 K17">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C17:D17 F17:G17 I17:J17 L17">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5679,4 +5684,1027 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F58F2C2-2E6C-4E47-BD33-F68FEB0194B5}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <f>'[2]1'!$G$185</f>
+        <v>64.215800000000002</v>
+      </c>
+      <c r="B2" s="3">
+        <f>'[2]10'!$G$217</f>
+        <v>64.452600000000004</v>
+      </c>
+      <c r="C2" s="3">
+        <f>'[2]20'!$F$167</f>
+        <v>73.4559</v>
+      </c>
+      <c r="D2" s="3">
+        <f>'[2]30'!$F$165</f>
+        <v>67.536799999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <f>'[2]1'!$G$566</f>
+        <v>40.0702</v>
+      </c>
+      <c r="B3" s="3">
+        <f>'[2]10'!$G$595</f>
+        <v>45.073099999999997</v>
+      </c>
+      <c r="C3" s="3">
+        <f>'[2]20'!$F$518</f>
+        <v>50.805900000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <f>'[2]30'!$F$329</f>
+        <v>67.450699999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <f>'[2]1'!$G$984</f>
+        <v>47.117800000000003</v>
+      </c>
+      <c r="B4" s="3">
+        <f>'[2]10'!$G$1059</f>
+        <v>49.835599999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <f>'[2]20'!$F$706</f>
+        <v>73.628299999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <f>'[2]30'!$F$661</f>
+        <v>49.764400000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <f>'[2]1'!$G$1191</f>
+        <v>57.624699999999997</v>
+      </c>
+      <c r="B5" s="3">
+        <f>'[2]10'!$G$1281</f>
+        <v>58.162300000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <f>'[2]20'!$F$874</f>
+        <v>63.103299999999997</v>
+      </c>
+      <c r="D5" s="3">
+        <f>'[2]30'!$F$1114</f>
+        <v>44.714399999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <f>'[2]1'!$G$1563</f>
+        <v>38.174500000000002</v>
+      </c>
+      <c r="B6" s="3">
+        <f>'[2]10'!$G$1654</f>
+        <v>42.823</v>
+      </c>
+      <c r="C6" s="3">
+        <f>'[2]20'!$F$1275</f>
+        <v>50.4529</v>
+      </c>
+      <c r="D6" s="3">
+        <f>'[2]30'!$F$1309</f>
+        <v>62.981099999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <f>'[2]1(1)'!$F$174</f>
+        <v>64.614900000000006</v>
+      </c>
+      <c r="B7" s="3">
+        <f>'[2]10(1)'!$F$204</f>
+        <v>59.9467</v>
+      </c>
+      <c r="C7" s="3">
+        <f>'[2]20(1)'!$F$410</f>
+        <v>41.4133</v>
+      </c>
+      <c r="D7" s="3">
+        <f>'[2]30(1)'!$F$135</f>
+        <v>77.270399999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <f>'[2]1(1)'!$F$320</f>
+        <v>74.070800000000006</v>
+      </c>
+      <c r="B8" s="3">
+        <f>'[2]10(1)'!$F$364</f>
+        <v>69.998800000000003</v>
+      </c>
+      <c r="C8" s="3">
+        <f>'[2]20(1)'!$F$610</f>
+        <v>65.077699999999993</v>
+      </c>
+      <c r="D8" s="3">
+        <f>'[2]30(1)'!$F$253</f>
+        <v>83.088800000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <f>'[2]1(1)'!$F$466</f>
+        <v>69.419899999999998</v>
+      </c>
+      <c r="B9" s="3">
+        <f>'[2]10(1)'!$F$504</f>
+        <v>75.975399999999993</v>
+      </c>
+      <c r="C9" s="3">
+        <f>'[2]20(1)'!$F$777</f>
+        <v>64.836500000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <f>'[2]30(1)'!$F$385</f>
+        <v>66.074600000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <f>'[2]1(1)'!$F$613</f>
+        <v>74.030799999999999</v>
+      </c>
+      <c r="B10" s="3">
+        <f>'[2]10(1)'!$F$630</f>
+        <v>80.5715</v>
+      </c>
+      <c r="C10" s="3">
+        <f>'[2]20(1)'!$F$931</f>
+        <v>74.374700000000004</v>
+      </c>
+      <c r="D10" s="3">
+        <f>'[2]30(1)'!$F$573</f>
+        <v>69.933700000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <f>'[2]1(1)'!$F$758</f>
+        <v>68.969800000000006</v>
+      </c>
+      <c r="B11" s="3">
+        <f>'[2]10(1)'!$F$752</f>
+        <v>78.622799999999998</v>
+      </c>
+      <c r="C11" s="3">
+        <f>'[2]20(1)'!$F$1071</f>
+        <v>72.039000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <f>'[2]30(1)'!$F$724</f>
+        <v>72.300200000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f>'[1]1'!$F$382</f>
+        <v>49.949199999999998</v>
+      </c>
+      <c r="B12">
+        <f>'[1]10'!$F$397</f>
+        <v>49.426099999999998</v>
+      </c>
+      <c r="C12">
+        <f>'[1]20'!$F$436</f>
+        <v>51.650300000000001</v>
+      </c>
+      <c r="D12">
+        <f>'[1]30'!$F$386</f>
+        <v>42.870100000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f>'[1]1'!$F$586</f>
+        <v>64.096599999999995</v>
+      </c>
+      <c r="B13">
+        <f>'[1]10'!$F$606</f>
+        <v>61.619</v>
+      </c>
+      <c r="C13">
+        <f>'[1]20'!$F$626</f>
+        <v>63.137300000000003</v>
+      </c>
+      <c r="D13">
+        <f>'[1]30'!$F$604</f>
+        <v>70.766900000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f>'[1]1'!$F$781</f>
+        <v>70.650800000000004</v>
+      </c>
+      <c r="B14">
+        <f>'[1]10'!$F$814</f>
+        <v>67.322299999999998</v>
+      </c>
+      <c r="C14">
+        <f>'[1]20'!$F$826</f>
+        <v>68.394599999999997</v>
+      </c>
+      <c r="D14">
+        <f>'[1]30'!$F$782</f>
+        <v>68.212999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f>'[1]1'!$F$953</f>
+        <v>69.0852</v>
+      </c>
+      <c r="B15">
+        <f>'[1]10'!$F$997</f>
+        <v>60.209699999999998</v>
+      </c>
+      <c r="C15">
+        <f>'[1]20'!$F$1005</f>
+        <v>61.5488</v>
+      </c>
+      <c r="D15">
+        <f>'[1]30'!$F$962</f>
+        <v>64.547300000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f>'[1]1'!$F$1130</f>
+        <v>66.221199999999996</v>
+      </c>
+      <c r="B16">
+        <f>'[1]10'!$F$1436</f>
+        <v>56.113500000000002</v>
+      </c>
+      <c r="C16">
+        <f>'[1]20'!$F$1412</f>
+        <v>50.632899999999999</v>
+      </c>
+      <c r="D16">
+        <f>'[1]30'!$F$1153</f>
+        <v>65.819299999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f>'[1]1(1)'!$F$408</f>
+        <v>50.597099999999998</v>
+      </c>
+      <c r="B17">
+        <f>'[1]10(1)'!$F$397</f>
+        <v>42.028199999999998</v>
+      </c>
+      <c r="C17">
+        <f>'[1]20(1)'!$F$215</f>
+        <v>62.324199999999998</v>
+      </c>
+      <c r="D17">
+        <f>'[1]30(1)'!$F$396</f>
+        <v>45.101500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <f>'[1]1(1)'!$F$603</f>
+        <v>63.497399999999999</v>
+      </c>
+      <c r="B18">
+        <f>'[1]10(1)'!$F$625</f>
+        <v>59.507599999999996</v>
+      </c>
+      <c r="C18">
+        <f>'[1]20(1)'!$F$408</f>
+        <v>62.0779</v>
+      </c>
+      <c r="D18">
+        <f>'[1]30(1)'!$F$604</f>
+        <v>67.766599999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <f>'[1]1(1)'!$F$823</f>
+        <v>55.7515</v>
+      </c>
+      <c r="B19">
+        <f>'[1]10(1)'!$F$842</f>
+        <v>63.148499999999999</v>
+      </c>
+      <c r="C19">
+        <f>'[1]20(1)'!$F$765</f>
+        <v>52.339700000000001</v>
+      </c>
+      <c r="D19">
+        <f>'[1]30(1)'!$F$812</f>
+        <v>61.385399999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <f>'[1]1(1)'!$F$1252</f>
+        <v>49.964700000000001</v>
+      </c>
+      <c r="B20">
+        <f>'[1]10(1)'!$F$1026</f>
+        <v>66.563699999999997</v>
+      </c>
+      <c r="C20">
+        <f>'[1]20(1)'!$F$945</f>
+        <v>65.529700000000005</v>
+      </c>
+      <c r="D20">
+        <f>'[1]30(1)'!$F$1008</f>
+        <v>63.999099999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f>'[1]1(1)'!$F$1472</f>
+        <v>55.570099999999996</v>
+      </c>
+      <c r="B21">
+        <f>'[1]10(1)'!$F$1211</f>
+        <v>61.431100000000001</v>
+      </c>
+      <c r="C21">
+        <f>'[1]20(1)'!$F$1139</f>
+        <v>67.949700000000007</v>
+      </c>
+      <c r="D21">
+        <f>'[1]30(1)'!$F$1403</f>
+        <v>50.360100000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <f>[3]SaveData1!$F$138</f>
+        <v>73.993600000000001</v>
+      </c>
+      <c r="B22">
+        <f>[3]SaveData!$F$177</f>
+        <v>73.730500000000006</v>
+      </c>
+      <c r="C22">
+        <f>[3]SaveData2!$F$118</f>
+        <v>83.172600000000003</v>
+      </c>
+      <c r="D22">
+        <f>[3]SaveData3!$F$228</f>
+        <v>57.048999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f>[3]SaveData1!$F$459</f>
+        <v>38.301900000000003</v>
+      </c>
+      <c r="B23">
+        <f>[3]SaveData!$F$320</f>
+        <v>65.196100000000001</v>
+      </c>
+      <c r="C23">
+        <f>[3]SaveData2!$F$442</f>
+        <v>39.557099999999998</v>
+      </c>
+      <c r="D23">
+        <f>[3]SaveData3!$F$405</f>
+        <v>70.928399999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f>[3]SaveData1!$F$681</f>
+        <v>60.350900000000003</v>
+      </c>
+      <c r="B24">
+        <f>[3]SaveData!$F$674</f>
+        <v>47.239600000000003</v>
+      </c>
+      <c r="C24">
+        <f>[3]SaveData2!$F$650</f>
+        <v>66.520600000000002</v>
+      </c>
+      <c r="D24">
+        <f>[3]SaveData3!$F$541</f>
+        <v>78.807299999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <f>[3]SaveData1!$F$848</f>
+        <v>68.141499999999994</v>
+      </c>
+      <c r="B25">
+        <f>[3]SaveData!$F$880</f>
+        <v>61.595999999999997</v>
+      </c>
+      <c r="C25">
+        <f>[3]SaveData2!$F$801</f>
+        <v>73.630799999999994</v>
+      </c>
+      <c r="D25">
+        <f>[3]SaveData3!$F$674</f>
+        <v>68.587999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <f>[3]SaveData1!$F$1004</f>
+        <v>64.792199999999994</v>
+      </c>
+      <c r="B26">
+        <f>[3]SaveData!$F$1043</f>
+        <v>64.503600000000006</v>
+      </c>
+      <c r="C26">
+        <f>[3]SaveData2!$F$945</f>
+        <v>66.292400000000001</v>
+      </c>
+      <c r="D26">
+        <f>[3]SaveData3!$F$827</f>
+        <v>68.774900000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <f>[3]SaveData4!$F$205</f>
+        <v>63.688200000000002</v>
+      </c>
+      <c r="B27">
+        <f>[3]SaveData6!$F$157</f>
+        <v>67.756</v>
+      </c>
+      <c r="C27">
+        <f>[3]SaveData7!$F$122</f>
+        <v>78.155299999999997</v>
+      </c>
+      <c r="D27">
+        <f>[3]SaveData5!$F$184</f>
+        <v>70.139799999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <f>[3]SaveData4!$F$379</f>
+        <v>63.793500000000002</v>
+      </c>
+      <c r="B28">
+        <f>[3]SaveData6!$F$302</f>
+        <v>72.771799999999999</v>
+      </c>
+      <c r="C28">
+        <f>[3]SaveData7!$F$256</f>
+        <v>71.495699999999999</v>
+      </c>
+      <c r="D28">
+        <f>[3]SaveData5!$F$339</f>
+        <v>70.787000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <f>[3]SaveData4!$F$539</f>
+        <v>66.974900000000005</v>
+      </c>
+      <c r="B29">
+        <f>[3]SaveData6!$F$435</f>
+        <v>73.881100000000004</v>
+      </c>
+      <c r="C29">
+        <f>[3]SaveData7!$F$416</f>
+        <v>60.014699999999998</v>
+      </c>
+      <c r="D29">
+        <f>[3]SaveData5!$F$486</f>
+        <v>73.007400000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <f>[3]SaveData4!$F$864</f>
+        <v>42.3399</v>
+      </c>
+      <c r="B30">
+        <f>[3]SaveData6!$F$556</f>
+        <v>82.572599999999994</v>
+      </c>
+      <c r="C30">
+        <f>[3]SaveData7!$F$592</f>
+        <v>64.113399999999999</v>
+      </c>
+      <c r="D30">
+        <f>[3]SaveData5!$F$640</f>
+        <v>64.974999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <f>[3]SaveData4!$F$1066</f>
+        <v>63.462899999999998</v>
+      </c>
+      <c r="B31">
+        <f>[3]SaveData6!$F$673</f>
+        <v>79.916600000000003</v>
+      </c>
+      <c r="C31">
+        <f>[3]SaveData7!$F$745</f>
+        <v>71.264600000000002</v>
+      </c>
+      <c r="D31">
+        <f>[3]SaveData5!$F$819</f>
+        <v>58.678400000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1910B9C1-F5AF-46E8-BBD8-B8DBD1D2994C}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="B2">
+        <v>0.70030000000000003</v>
+      </c>
+      <c r="C2">
+        <v>1.085</v>
+      </c>
+      <c r="D2">
+        <v>0.82130000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="B3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.79690000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="B4">
+        <v>1.0914999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.64910000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.61480000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>0.8407</v>
+      </c>
+      <c r="B5">
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1.1751</v>
+      </c>
+      <c r="D5">
+        <v>0.83630000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="B6">
+        <v>1.0067999999999999</v>
+      </c>
+      <c r="C6">
+        <v>1.0335000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.59219999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1.0145</v>
+      </c>
+      <c r="B7">
+        <v>1.0445</v>
+      </c>
+      <c r="C7">
+        <v>1.0130999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.65880000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>0.8306</v>
+      </c>
+      <c r="B8">
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.90239999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>0.68540000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="C9">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.95309999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="B10">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="C10">
+        <v>1.2261</v>
+      </c>
+      <c r="D10">
+        <v>0.66959999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="B11">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="C11">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="D11">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="B12">
+        <v>1.1355999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.65659999999999996</v>
+      </c>
+      <c r="D12">
+        <v>0.89419999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="B13">
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="C13">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="D13">
+        <v>1.3009999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>0.432</v>
+      </c>
+      <c r="B14">
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="C14">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.96140000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>0.2802</v>
+      </c>
+      <c r="B15">
+        <v>0.77759999999999996</v>
+      </c>
+      <c r="C15">
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="D15">
+        <v>0.61219999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="B16">
+        <v>1.0081</v>
+      </c>
+      <c r="C16">
+        <v>0.59370000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.78949999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>0.82</v>
+      </c>
+      <c r="B17">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="C17">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="D17">
+        <v>0.92679999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>0.9536</v>
+      </c>
+      <c r="B18">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.52190000000000003</v>
+      </c>
+      <c r="D18">
+        <v>0.35149999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="B19">
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="D19">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1.0807</v>
+      </c>
+      <c r="B20">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="C20">
+        <v>0.4279</v>
+      </c>
+      <c r="D20">
+        <v>0.84709999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="B21">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="C21">
+        <v>0.4325</v>
+      </c>
+      <c r="D21">
+        <v>0.50470000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1.5684</v>
+      </c>
+      <c r="B22">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="C22">
+        <v>1.5392999999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.8001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1.6072</v>
+      </c>
+      <c r="B23">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C23">
+        <v>1.3973</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.2907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1.5379</v>
+      </c>
+      <c r="B24">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="C24">
+        <v>1.0243</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.4544999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1.8004</v>
+      </c>
+      <c r="B25">
+        <v>1.0537000000000001</v>
+      </c>
+      <c r="C25">
+        <v>1.3444</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.4401999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1.8673</v>
+      </c>
+      <c r="B26">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="C26">
+        <v>1.7152000000000001</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.1600999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1.1511</v>
+      </c>
+      <c r="B27">
+        <v>1.3178000000000001</v>
+      </c>
+      <c r="C27">
+        <v>1.3989</v>
+      </c>
+      <c r="D27">
+        <f>[3]SaveData5!$T$184</f>
+        <v>1.1689000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>1.4525999999999999</v>
+      </c>
+      <c r="B28">
+        <v>1.3513999999999999</v>
+      </c>
+      <c r="C28">
+        <v>1.6527000000000001</v>
+      </c>
+      <c r="D28">
+        <f>[3]SaveData5!$T$339</f>
+        <v>1.3606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="B29">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="C29">
+        <v>1.494</v>
+      </c>
+      <c r="D29">
+        <f>[3]SaveData5!$T$486</f>
+        <v>1.4153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>1.6245000000000001</v>
+      </c>
+      <c r="B30">
+        <v>1.7232000000000001</v>
+      </c>
+      <c r="C30">
+        <v>1.5097</v>
+      </c>
+      <c r="D30">
+        <f>[3]SaveData5!$T$640</f>
+        <v>1.1195999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1.5738000000000001</v>
+      </c>
+      <c r="B31">
+        <v>1.7151000000000001</v>
+      </c>
+      <c r="C31">
+        <v>1.5506</v>
+      </c>
+      <c r="D31">
+        <f>[3]SaveData5!$T$819</f>
+        <v>1.4988999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Excel Data/2023_11_24/まとめ.xlsx
+++ b/Assets/Excel Data/2023_11_24/まとめ.xlsx
@@ -5,22 +5,25 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DrivingTeam\UnityProject\Fujita_Project_2023\Assets\Excel Data\2023_11_24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity Project\Fujita Project 2023\Assets\Excel Data\2023_11_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E978EDF-2101-4946-B94E-996D44618E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3985AA4-D0A7-4467-940D-9F051B835326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28815" yWindow="45" windowWidth="14400" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-375" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="V" sheetId="2" r:id="rId2"/>
-    <sheet name="x" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="x" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="70">
   <si>
     <t>被験者A</t>
     <rPh sb="0" eb="3">
@@ -77,12 +80,210 @@
     <t>ALLAVG</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>BellCurve for Excel (version 3.22)</t>
+  </si>
+  <si>
+    <t>Social Survey Research Information Co., Ltd.</t>
+  </si>
+  <si>
+    <t>ブック / シート / 範囲</t>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>基本統計量</t>
+  </si>
+  <si>
+    <t>目的変数</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>平　均</t>
+  </si>
+  <si>
+    <t>標準偏差(SD)</t>
+  </si>
+  <si>
+    <t>平均-SD</t>
+  </si>
+  <si>
+    <t>平均+SD</t>
+  </si>
+  <si>
+    <t>標準誤差(SE)</t>
+  </si>
+  <si>
+    <t>平均-SE</t>
+  </si>
+  <si>
+    <t>平均+SE</t>
+  </si>
+  <si>
+    <t>変数Y</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>等分散性の検定</t>
+  </si>
+  <si>
+    <t>ルビーン検定</t>
+  </si>
+  <si>
+    <t>F　値</t>
+  </si>
+  <si>
+    <t>自由度1</t>
+  </si>
+  <si>
+    <t>自由度2</t>
+  </si>
+  <si>
+    <t>P　値</t>
+  </si>
+  <si>
+    <t>分散分析表</t>
+  </si>
+  <si>
+    <t>因　子</t>
+  </si>
+  <si>
+    <t>TypeⅢ平方和</t>
+  </si>
+  <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t>平均平方</t>
+  </si>
+  <si>
+    <t>*：P&lt;0.05 **：P&lt;0.01</t>
+  </si>
+  <si>
+    <t>誤差</t>
+  </si>
+  <si>
+    <t>全体</t>
+  </si>
+  <si>
+    <t>出力内容</t>
+  </si>
+  <si>
+    <t>設定オプション</t>
+  </si>
+  <si>
+    <t>一元配置分散分析</t>
+  </si>
+  <si>
+    <t>2024/01/23 14:11:47</t>
+  </si>
+  <si>
+    <t>まとめ.xlsx / V / A1:D31</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Tukey</t>
+  </si>
+  <si>
+    <t>A1:D31</t>
+  </si>
+  <si>
+    <t>データ入力範囲</t>
+  </si>
+  <si>
+    <t>先頭行をラベルとして使用</t>
+  </si>
+  <si>
+    <t>最左列</t>
+  </si>
+  <si>
+    <t>設定オプション（以下5行を非表示にしています。再表示で展開します。）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>因子A</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>バートレット検定</t>
+  </si>
+  <si>
+    <t>カイ二乗値</t>
+  </si>
+  <si>
+    <t>等分散を仮定しない検定</t>
+  </si>
+  <si>
+    <t>手　法</t>
+  </si>
+  <si>
+    <t>Welch</t>
+  </si>
+  <si>
+    <t>Brown-Forsythe</t>
+  </si>
+  <si>
+    <t>多重比較検定</t>
+  </si>
+  <si>
+    <t>手法</t>
+  </si>
+  <si>
+    <t>水準1</t>
+  </si>
+  <si>
+    <t>水準2</t>
+  </si>
+  <si>
+    <t>平均1</t>
+  </si>
+  <si>
+    <t>平均2</t>
+  </si>
+  <si>
+    <t>差</t>
+  </si>
+  <si>
+    <t>標準誤差</t>
+  </si>
+  <si>
+    <t>統計量</t>
+  </si>
+  <si>
+    <t>2024/01/23 14:12:14</t>
+  </si>
+  <si>
+    <t>まとめ.xlsx / x / A1:D31</t>
+  </si>
+  <si>
+    <t>2024/01/23 14:13:16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="3">
+    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="180" formatCode="[&lt;0.001]&quot;P &lt; 0.001&quot;;0.0000"/>
+    <numFmt numFmtId="181" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +306,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,7 +332,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -131,8 +340,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -146,8 +356,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{FA0AE0A9-430F-447A-8B68-478FBB2D890A}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{7BDDAC5B-07FE-4BD4-A50A-C17C4D69402B}"/>
@@ -1611,6 +1827,1749 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>各水準の平均値
+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>【 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>因子</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>A 】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1038037120359955"/>
+          <c:y val="0.21386666666666668"/>
+          <c:w val="0.61205343082114738"/>
+          <c:h val="0.74702222222222225"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均+SD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$H$24:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70.806288020265882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.70684658925758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.027069140317451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.723025534412372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D68F-403D-A483-95B5CAA78EE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均+SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$K$24:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>61.960211018261745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.464212971770749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.530683261301306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.602958200270521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D68F-403D-A483-95B5CAA78EE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平　均</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$E$24:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>59.984416666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.399846666666676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.632993333333339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.789320000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D68F-403D-A483-95B5CAA78EE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$J$24:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>58.008622315071577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.33548036156261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.735303405365372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.975681799729479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D68F-403D-A483-95B5CAA78EE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均-SD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$G$24:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>49.16254531306744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.092846744075771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.238917526349226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.855614465587635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D68F-403D-A483-95B5CAA78EE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="353586735"/>
+        <c:axId val="178529551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="353586735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="178529551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178529551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>変数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Y</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="353586735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>各水準の平均値
+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>【 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>因子</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>A 】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1038037120359955"/>
+          <c:y val="0.21386666666666668"/>
+          <c:w val="0.61205343082114738"/>
+          <c:h val="0.74702222222222225"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均+SD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$24:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70.806288020265882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.70684658925758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.027069140317451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.723025534412372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B565-4409-8EBC-33A5A125ADED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均+SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$24:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>61.960211018261745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.464212971770749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.530683261301306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.602958200270521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B565-4409-8EBC-33A5A125ADED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平　均</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$24:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>59.984416666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.399846666666676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.632993333333339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.789320000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B565-4409-8EBC-33A5A125ADED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$24:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>58.008622315071577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.33548036156261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.735303405365372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.975681799729479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B565-4409-8EBC-33A5A125ADED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均-SD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$24:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>49.16254531306744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.092846744075771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.238917526349226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.855614465587635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B565-4409-8EBC-33A5A125ADED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1520365023"/>
+        <c:axId val="312120607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1520365023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="312120607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="312120607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>変数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Y</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1520365023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>各水準の平均値
+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>【 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>因子</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>A 】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1038037120359955"/>
+          <c:y val="0.21386666666666668"/>
+          <c:w val="0.61205343082114738"/>
+          <c:h val="0.74702222222222225"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均+SD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$H$24:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4647816788928443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2435139563021653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4063512362120287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3208680595234337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C00F-45EE-B2D0-635544816178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均+SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$K$24:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1151345887715807</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0023946299144129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0718732063076786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0298824043926338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C00F-45EE-B2D0-635544816178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平　均</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$24:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.03704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94853999999999983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99716666666666653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96488999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C00F-45EE-B2D0-635544816178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$J$24:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95894541122841925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8946853700855868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9224601270256545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89989759560736615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C00F-45EE-B2D0-635544816178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均-SD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$24:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$G$24:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.60929832110715565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65356604369783433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58798209712130434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60891194047656616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C00F-45EE-B2D0-635544816178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1520356383"/>
+        <c:axId val="312116143"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1520356383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="312116143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="312116143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>変数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Y</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1520356383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900"/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -2788,6 +4747,129 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8957A1F-F1A8-21FF-038D-F847A6348F31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21625322-EAC2-8B6C-0861-1392F3C945A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5950FE-6292-3366-87D0-A45DAAB81F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -4202,7 +6284,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3:M12"/>
     </sheetView>
   </sheetViews>
@@ -5657,8 +7739,8 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B17 E17 H17 K17">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C17:D17 F17:G17 I17:J17 L17">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5669,8 +7751,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:D17 F17:G17 I17:J17 L17">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E17 B17 H17 K17">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5690,8 +7772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F58F2C2-2E6C-4E47-BD33-F68FEB0194B5}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6257,10 +8339,1418 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DA0B18-2318-4E1B-ADAE-B7CE1E26D88A}">
+  <dimension ref="A1:L68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1"/>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24" s="6">
+        <v>59.984416666666661</v>
+      </c>
+      <c r="F24" s="6">
+        <v>10.821871353599217</v>
+      </c>
+      <c r="G24" s="6">
+        <v>49.16254531306744</v>
+      </c>
+      <c r="H24" s="6">
+        <v>70.806288020265882</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1.9757943515950858</v>
+      </c>
+      <c r="J24" s="6">
+        <v>58.008622315071577</v>
+      </c>
+      <c r="K24" s="6">
+        <v>61.960211018261745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25" s="6">
+        <v>63.399846666666676</v>
+      </c>
+      <c r="F25" s="6">
+        <v>11.306999922590904</v>
+      </c>
+      <c r="G25" s="6">
+        <v>52.092846744075771</v>
+      </c>
+      <c r="H25" s="6">
+        <v>74.70684658925758</v>
+      </c>
+      <c r="I25" s="6">
+        <v>2.0643663051040684</v>
+      </c>
+      <c r="J25" s="6">
+        <v>61.33548036156261</v>
+      </c>
+      <c r="K25" s="6">
+        <v>65.464212971770749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6">
+        <v>63.632993333333339</v>
+      </c>
+      <c r="F26" s="6">
+        <v>10.394075806984109</v>
+      </c>
+      <c r="G26" s="6">
+        <v>53.238917526349226</v>
+      </c>
+      <c r="H26" s="6">
+        <v>74.027069140317451</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1.8976899279679698</v>
+      </c>
+      <c r="J26" s="6">
+        <v>61.735303405365372</v>
+      </c>
+      <c r="K26" s="6">
+        <v>65.530683261301306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27" s="6">
+        <v>64.789320000000004</v>
+      </c>
+      <c r="F27" s="6">
+        <v>9.9337055344123719</v>
+      </c>
+      <c r="G27" s="6">
+        <v>54.855614465587635</v>
+      </c>
+      <c r="H27" s="6">
+        <v>74.723025534412372</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1.8136382002705225</v>
+      </c>
+      <c r="J27" s="6">
+        <v>62.975681799729479</v>
+      </c>
+      <c r="K27" s="6">
+        <v>66.602958200270521</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.52505614228970299</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.91335319441465268</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0.40853305934732081</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>116</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.74715796241104782</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8">
+        <v>385.39841019291998</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="8">
+        <v>128.46613673097332</v>
+      </c>
+      <c r="E52" s="8">
+        <v>1.1376828049734602</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.33690428297729874</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="8">
+        <v>13098.617466702886</v>
+      </c>
+      <c r="C53">
+        <v>116</v>
+      </c>
+      <c r="D53" s="8">
+        <v>112.91911609226626</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="8">
+        <v>13484.015876895806</v>
+      </c>
+      <c r="C54">
+        <v>119</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1.1266811416921274</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="8">
+        <v>64.37869950886838</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.34492215116778285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1.1376828049734455</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" s="8">
+        <v>114.94728116976503</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.33694667498793435</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" t="s">
+        <v>66</v>
+      </c>
+      <c r="K62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="8">
+        <v>59.984416666666661</v>
+      </c>
+      <c r="G63" s="8">
+        <v>63.399846666666676</v>
+      </c>
+      <c r="H63" s="8">
+        <v>3.4154300000000148</v>
+      </c>
+      <c r="I63" s="8">
+        <v>2.7437093637660954</v>
+      </c>
+      <c r="J63" s="8">
+        <v>1.2448220810501212</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0.59976453826406628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="D64" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="8">
+        <v>59.984416666666661</v>
+      </c>
+      <c r="G64" s="8">
+        <v>63.632993333333339</v>
+      </c>
+      <c r="H64" s="8">
+        <v>3.6485766666666777</v>
+      </c>
+      <c r="I64" s="8">
+        <v>2.7437093637660954</v>
+      </c>
+      <c r="J64" s="8">
+        <v>1.3297970677399062</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0.54595454573284508</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11">
+      <c r="D65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="8">
+        <v>59.984416666666661</v>
+      </c>
+      <c r="G65" s="8">
+        <v>64.789320000000004</v>
+      </c>
+      <c r="H65" s="8">
+        <v>4.8049033333333426</v>
+      </c>
+      <c r="I65" s="8">
+        <v>2.7437093637660954</v>
+      </c>
+      <c r="J65" s="8">
+        <v>1.751243552537938</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0.30227379600482429</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11">
+      <c r="D66" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="8">
+        <v>63.399846666666676</v>
+      </c>
+      <c r="G66" s="8">
+        <v>63.632993333333339</v>
+      </c>
+      <c r="H66" s="8">
+        <v>0.23314666666666284</v>
+      </c>
+      <c r="I66" s="8">
+        <v>2.7437093637660954</v>
+      </c>
+      <c r="J66" s="8">
+        <v>8.4974986689785148E-2</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0.99977881087906895</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11">
+      <c r="D67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="8">
+        <v>63.399846666666676</v>
+      </c>
+      <c r="G67" s="8">
+        <v>64.789320000000004</v>
+      </c>
+      <c r="H67" s="8">
+        <v>1.3894733333333278</v>
+      </c>
+      <c r="I67" s="8">
+        <v>2.7437093637660954</v>
+      </c>
+      <c r="J67" s="8">
+        <v>0.5064214714878168</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0.95741264259289538</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11">
+      <c r="D68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="8">
+        <v>63.632993333333339</v>
+      </c>
+      <c r="G68" s="8">
+        <v>64.789320000000004</v>
+      </c>
+      <c r="H68" s="8">
+        <v>1.1563266666666649</v>
+      </c>
+      <c r="I68" s="8">
+        <v>2.7437093637660954</v>
+      </c>
+      <c r="J68" s="8">
+        <v>0.42144648479803171</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0.97471360961882392</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:D19">
+    <sortCondition ref="D16"/>
+    <sortCondition ref="C16"/>
+  </sortState>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A4" location="A11" display="設定オプション" xr:uid="{4796BFAB-4BE5-499B-B603-40F10CC2C298}"/>
+    <hyperlink ref="A5" location="A22" display="基本統計量" xr:uid="{D0630589-0229-44BB-AC81-1FACE1725309}"/>
+    <hyperlink ref="A6" location="A45" display="等分散性の検定" xr:uid="{F5A6F1CB-B753-4189-B83B-72C2C211CA97}"/>
+    <hyperlink ref="A7" location="A50" display="分散分析表" xr:uid="{CF95E0F5-735D-4A3E-A3E3-2769345BA63C}"/>
+    <hyperlink ref="A8" location="A56" display="等分散を仮定しない検定" xr:uid="{06505361-9A38-4BEC-9402-909ED2DB077A}"/>
+    <hyperlink ref="A9" location="A61" display="多重比較検定" xr:uid="{52FEDEAE-8B81-48C2-A13A-69F257186832}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F62B88B-A14E-4AA2-987E-D2BD2D872BD8}">
+  <dimension ref="A1:L68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1"/>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24" s="6">
+        <v>59.984416666666661</v>
+      </c>
+      <c r="F24" s="6">
+        <v>10.821871353599217</v>
+      </c>
+      <c r="G24" s="6">
+        <v>49.16254531306744</v>
+      </c>
+      <c r="H24" s="6">
+        <v>70.806288020265882</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1.9757943515950858</v>
+      </c>
+      <c r="J24" s="6">
+        <v>58.008622315071577</v>
+      </c>
+      <c r="K24" s="6">
+        <v>61.960211018261745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25" s="6">
+        <v>63.399846666666676</v>
+      </c>
+      <c r="F25" s="6">
+        <v>11.306999922590904</v>
+      </c>
+      <c r="G25" s="6">
+        <v>52.092846744075771</v>
+      </c>
+      <c r="H25" s="6">
+        <v>74.70684658925758</v>
+      </c>
+      <c r="I25" s="6">
+        <v>2.0643663051040684</v>
+      </c>
+      <c r="J25" s="6">
+        <v>61.33548036156261</v>
+      </c>
+      <c r="K25" s="6">
+        <v>65.464212971770749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6">
+        <v>63.632993333333339</v>
+      </c>
+      <c r="F26" s="6">
+        <v>10.394075806984109</v>
+      </c>
+      <c r="G26" s="6">
+        <v>53.238917526349226</v>
+      </c>
+      <c r="H26" s="6">
+        <v>74.027069140317451</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1.8976899279679698</v>
+      </c>
+      <c r="J26" s="6">
+        <v>61.735303405365372</v>
+      </c>
+      <c r="K26" s="6">
+        <v>65.530683261301306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27" s="6">
+        <v>64.789320000000004</v>
+      </c>
+      <c r="F27" s="6">
+        <v>9.9337055344123719</v>
+      </c>
+      <c r="G27" s="6">
+        <v>54.855614465587635</v>
+      </c>
+      <c r="H27" s="6">
+        <v>74.723025534412372</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1.8136382002705225</v>
+      </c>
+      <c r="J27" s="6">
+        <v>62.975681799729479</v>
+      </c>
+      <c r="K27" s="6">
+        <v>66.602958200270521</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.52505614228970299</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.91335319441465268</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0.40853305934732081</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>116</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.74715796241104782</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8">
+        <v>385.39841019291998</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="8">
+        <v>128.46613673097332</v>
+      </c>
+      <c r="E52" s="8">
+        <v>1.1376828049734602</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.33690428297729874</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="8">
+        <v>13098.617466702886</v>
+      </c>
+      <c r="C53">
+        <v>116</v>
+      </c>
+      <c r="D53" s="8">
+        <v>112.91911609226626</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="8">
+        <v>13484.015876895806</v>
+      </c>
+      <c r="C54">
+        <v>119</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1.1266811416921274</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="8">
+        <v>64.37869950886838</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.34492215116778285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1.1376828049734455</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" s="8">
+        <v>114.94728116976503</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.33694667498793435</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" t="s">
+        <v>66</v>
+      </c>
+      <c r="K62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="8">
+        <v>59.984416666666661</v>
+      </c>
+      <c r="G63" s="8">
+        <v>63.399846666666676</v>
+      </c>
+      <c r="H63" s="8">
+        <v>3.4154300000000148</v>
+      </c>
+      <c r="I63" s="8">
+        <v>2.7437093637660954</v>
+      </c>
+      <c r="J63" s="8">
+        <v>1.2448220810501212</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0.59976453826406628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="D64" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="8">
+        <v>59.984416666666661</v>
+      </c>
+      <c r="G64" s="8">
+        <v>63.632993333333339</v>
+      </c>
+      <c r="H64" s="8">
+        <v>3.6485766666666777</v>
+      </c>
+      <c r="I64" s="8">
+        <v>2.7437093637660954</v>
+      </c>
+      <c r="J64" s="8">
+        <v>1.3297970677399062</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0.54595454573284508</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11">
+      <c r="D65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="8">
+        <v>59.984416666666661</v>
+      </c>
+      <c r="G65" s="8">
+        <v>64.789320000000004</v>
+      </c>
+      <c r="H65" s="8">
+        <v>4.8049033333333426</v>
+      </c>
+      <c r="I65" s="8">
+        <v>2.7437093637660954</v>
+      </c>
+      <c r="J65" s="8">
+        <v>1.751243552537938</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0.30227379600482429</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11">
+      <c r="D66" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="8">
+        <v>63.399846666666676</v>
+      </c>
+      <c r="G66" s="8">
+        <v>63.632993333333339</v>
+      </c>
+      <c r="H66" s="8">
+        <v>0.23314666666666284</v>
+      </c>
+      <c r="I66" s="8">
+        <v>2.7437093637660954</v>
+      </c>
+      <c r="J66" s="8">
+        <v>8.4974986689785148E-2</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0.99977881087906895</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11">
+      <c r="D67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="8">
+        <v>63.399846666666676</v>
+      </c>
+      <c r="G67" s="8">
+        <v>64.789320000000004</v>
+      </c>
+      <c r="H67" s="8">
+        <v>1.3894733333333278</v>
+      </c>
+      <c r="I67" s="8">
+        <v>2.7437093637660954</v>
+      </c>
+      <c r="J67" s="8">
+        <v>0.5064214714878168</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0.95741264259289538</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11">
+      <c r="D68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="8">
+        <v>63.632993333333339</v>
+      </c>
+      <c r="G68" s="8">
+        <v>64.789320000000004</v>
+      </c>
+      <c r="H68" s="8">
+        <v>1.1563266666666649</v>
+      </c>
+      <c r="I68" s="8">
+        <v>2.7437093637660954</v>
+      </c>
+      <c r="J68" s="8">
+        <v>0.42144648479803171</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0.97471360961882392</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:D19">
+    <sortCondition ref="D16"/>
+    <sortCondition ref="C16"/>
+  </sortState>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A4" location="A11" display="設定オプション" xr:uid="{3B0564EA-D1C6-4B08-A01B-4AAA4A6A3F61}"/>
+    <hyperlink ref="A5" location="A22" display="基本統計量" xr:uid="{1240C119-D07B-436A-BD80-C21859431072}"/>
+    <hyperlink ref="A6" location="A45" display="等分散性の検定" xr:uid="{2A4332F2-38DC-4DC1-AE05-872A6CA228A3}"/>
+    <hyperlink ref="A7" location="A50" display="分散分析表" xr:uid="{19F9A779-6D82-4CEC-9A7F-073C95B02353}"/>
+    <hyperlink ref="A8" location="A56" display="等分散を仮定しない検定" xr:uid="{7FBEB58B-4936-4615-95E6-898FB1F68568}"/>
+    <hyperlink ref="A9" location="A61" display="多重比較検定" xr:uid="{D7339912-8D60-4B7E-BC6C-32087EBD90FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1910B9C1-F5AF-46E8-BBD8-B8DBD1D2994C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -6707,4 +10197,705 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A0020-A96A-4832-A3E4-E4056399379C}">
+  <dimension ref="A1:L68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1"/>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.03704</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.42774167889284431</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.60929832110715565</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1.4647816788928443</v>
+      </c>
+      <c r="I24" s="6">
+        <v>7.8094588771580736E-2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.95894541122841925</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1.1151345887715807</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.94853999999999983</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.29497395630216555</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.65356604369783433</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.2435139563021653</v>
+      </c>
+      <c r="I25" s="6">
+        <v>5.3854629914413074E-2</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.8946853700855868</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1.0023946299144129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.99716666666666653</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.4091845695453622</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.58798209712130434</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1.4063512362120287</v>
+      </c>
+      <c r="I26" s="6">
+        <v>7.4706539641012093E-2</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.9224601270256545</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1.0718732063076786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.96488999999999991</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.35597805952343381</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.60891194047656616</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.3208680595234337</v>
+      </c>
+      <c r="I27" s="6">
+        <v>6.4992404392633804E-2</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.89989759560736615</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1.0298824043926338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="8">
+        <v>4.5188998783242216</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.21061064404287919</v>
+      </c>
+      <c r="E48" s="8">
+        <v>2.4404585482111383</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>116</v>
+      </c>
+      <c r="H48" s="7">
+        <v>6.7869162824142598E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.1372606022499987</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="8">
+        <v>4.5753534083332902E-2</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.32442126515212338</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.80769687209966246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="8">
+        <v>16.35962411766668</v>
+      </c>
+      <c r="C53">
+        <v>116</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.14103124239367829</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="8">
+        <v>16.496884719916679</v>
+      </c>
+      <c r="C54">
+        <v>119</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0.31908708896935151</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="8">
+        <v>63.776126401390201</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.81152450448172508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0.32442126515212694</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" s="8">
+        <v>108.39942877228542</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.8076954118545413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" t="s">
+        <v>66</v>
+      </c>
+      <c r="K62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1.03704</v>
+      </c>
+      <c r="G63" s="8">
+        <v>0.94853999999999983</v>
+      </c>
+      <c r="H63" s="8">
+        <v>8.8500000000000134E-2</v>
+      </c>
+      <c r="I63" s="8">
+        <v>9.6964337909590345E-2</v>
+      </c>
+      <c r="J63" s="8">
+        <v>0.91270669101580038</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0.79811398311923676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="D64" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1.03704</v>
+      </c>
+      <c r="G64" s="8">
+        <v>0.99716666666666653</v>
+      </c>
+      <c r="H64" s="8">
+        <v>3.9873333333333427E-2</v>
+      </c>
+      <c r="I64" s="8">
+        <v>9.6964337909590345E-2</v>
+      </c>
+      <c r="J64" s="8">
+        <v>0.41121647600493461</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0.97643475606303409</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11">
+      <c r="D65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1.03704</v>
+      </c>
+      <c r="G65" s="8">
+        <v>0.96488999999999991</v>
+      </c>
+      <c r="H65" s="8">
+        <v>7.2150000000000047E-2</v>
+      </c>
+      <c r="I65" s="8">
+        <v>9.6964337909590345E-2</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0.7440879972518637</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0.87900453656508615</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11">
+      <c r="D66" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0.94853999999999983</v>
+      </c>
+      <c r="G66" s="8">
+        <v>0.99716666666666653</v>
+      </c>
+      <c r="H66" s="8">
+        <v>4.8626666666666707E-2</v>
+      </c>
+      <c r="I66" s="8">
+        <v>9.6964337909590345E-2</v>
+      </c>
+      <c r="J66" s="8">
+        <v>0.50149021501086577</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0.95856730867184348</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11">
+      <c r="D67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0.94853999999999983</v>
+      </c>
+      <c r="G67" s="8">
+        <v>0.96488999999999991</v>
+      </c>
+      <c r="H67" s="8">
+        <v>1.6350000000000087E-2</v>
+      </c>
+      <c r="I67" s="8">
+        <v>9.6964337909590345E-2</v>
+      </c>
+      <c r="J67" s="8">
+        <v>0.16861869376393665</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0.99828576851938067</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11">
+      <c r="D68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0.99716666666666653</v>
+      </c>
+      <c r="G68" s="8">
+        <v>0.96488999999999991</v>
+      </c>
+      <c r="H68" s="8">
+        <v>3.227666666666662E-2</v>
+      </c>
+      <c r="I68" s="8">
+        <v>9.6964337909590345E-2</v>
+      </c>
+      <c r="J68" s="8">
+        <v>0.33287152124692915</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0.98722070589454858</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:D19">
+    <sortCondition ref="D16"/>
+    <sortCondition ref="C16"/>
+  </sortState>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A4" location="A11" display="設定オプション" xr:uid="{0493653F-40B9-4F2B-9294-6D00645BC4B4}"/>
+    <hyperlink ref="A5" location="A22" display="基本統計量" xr:uid="{821B7124-7C2F-4573-997D-DD251823DFD5}"/>
+    <hyperlink ref="A6" location="A45" display="等分散性の検定" xr:uid="{A9D47C29-840F-4504-901E-8030E68B2404}"/>
+    <hyperlink ref="A7" location="A50" display="分散分析表" xr:uid="{B1D463E7-1F52-47DD-9BF1-E9C7A8D61888}"/>
+    <hyperlink ref="A8" location="A56" display="等分散を仮定しない検定" xr:uid="{48840569-9B8C-4839-B2BD-247A7CF35E46}"/>
+    <hyperlink ref="A9" location="A61" display="多重比較検定" xr:uid="{C2FA3085-B1B8-4DEF-8ABD-178F4A8DC02B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>